--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -682,7 +682,7 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
         <v>1.58</v>
@@ -1240,7 +1240,7 @@
         <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
@@ -1249,7 +1249,7 @@
         <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
         <v>2.8</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
         <v>16</v>
@@ -1270,10 +1270,10 @@
         <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G8" t="n">
         <v>4.5</v>
@@ -1615,10 +1615,10 @@
         <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>980</v>
@@ -1753,7 +1753,7 @@
         <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
         <v>3.45</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
         <v>1.74</v>
@@ -2122,7 +2122,7 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H13" t="n">
         <v>1.35</v>
@@ -2215,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>48</v>
@@ -2293,10 +2293,10 @@
         <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>12.5</v>
@@ -2437,7 +2437,7 @@
         <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.32</v>
@@ -2464,7 +2464,7 @@
         <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2479,7 +2479,7 @@
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
@@ -2521,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>14.5</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
         <v>1.5</v>
@@ -2581,28 +2581,28 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
         <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>40</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="n">
         <v>70</v>
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>55</v>
@@ -2704,10 +2704,10 @@
         <v>24</v>
       </c>
       <c r="J17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T17" t="n">
         <v>2.14</v>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
         <v>26</v>
@@ -2842,7 +2842,7 @@
         <v>11.5</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
         <v>1.89</v>
@@ -805,19 +805,19 @@
         <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -976,7 +976,7 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
         <v>3.6</v>
       </c>
       <c r="H5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.16</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
         <v>14.5</v>
@@ -1210,10 +1210,10 @@
         <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
         <v>2.22</v>
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,16 +1240,16 @@
         <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
         <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U6" t="n">
         <v>2.8</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
         <v>16</v>
@@ -1270,16 +1270,16 @@
         <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.86</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.87</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
         <v>80</v>
@@ -2155,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>1.35</v>
@@ -2167,7 +2167,7 @@
         <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
         <v>1.66</v>
@@ -2212,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
@@ -2434,10 +2434,10 @@
         <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.32</v>
@@ -2572,7 +2572,7 @@
         <v>5.4</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
         <v>14</v>
@@ -2647,7 +2647,7 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK16" t="n">
         <v>14</v>
@@ -2701,13 +2701,13 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
         <v>2.14</v>
@@ -2833,16 +2833,16 @@
         <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
         <v>11.5</v>
       </c>
       <c r="K18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>1.26</v>
       </c>
       <c r="R18" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>970</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>970</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1.32</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
         <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
         <v>1.09</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1084,7 +1084,7 @@
         <v>2.12</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1099,7 +1099,7 @@
         <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
         <v>2.56</v>
@@ -1114,7 +1114,7 @@
         <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="U5" t="n">
         <v>2.64</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,25 +1231,25 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
         <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="U6" t="n">
         <v>2.8</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
         <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>1.29</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>980</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>980</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
         <v>980</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>980</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1.63</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>1.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>5.1</v>
@@ -2044,10 +2044,10 @@
         <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -2056,13 +2056,13 @@
         <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2179,25 +2179,25 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,40 +2206,40 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2248,16 +2248,16 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -2323,16 +2323,16 @@
         <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2446,28 +2446,28 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,55 +2476,55 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
@@ -2590,7 +2590,7 @@
         <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R16" t="n">
         <v>1.89</v>
@@ -2599,10 +2599,10 @@
         <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>1.19</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,28 +2716,28 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T17" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,25 +2770,25 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2830,13 +2830,13 @@
         <v>1.13</v>
       </c>
       <c r="G18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
         <v>11.5</v>
@@ -2851,16 +2851,16 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.08</v>
       </c>
       <c r="P18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="R18" t="n">
         <v>2.4</v>
@@ -2869,7 +2869,7 @@
         <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
         <v>1.85</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,22 +2905,22 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G3" t="n">
-        <v>970</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>970</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
         <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.96</v>
       </c>
       <c r="S4" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1096,10 +1096,10 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>2.56</v>
@@ -1114,10 +1114,10 @@
         <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,46 +1126,46 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1231,10 +1231,10 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.74</v>
@@ -1243,16 +1243,16 @@
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
         <v>20</v>
       </c>
-      <c r="Z6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="n">
         <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="I8" t="n">
-        <v>980</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.16</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>980</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.15</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>2.84</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
         <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2044,13 +2044,13 @@
         <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
         <v>1.35</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H13" t="n">
         <v>1.34</v>
@@ -2164,10 +2164,10 @@
         <v>1.36</v>
       </c>
       <c r="J13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,25 +2176,25 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.37</v>
       </c>
       <c r="R13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13</v>
       </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -2314,7 +2314,7 @@
         <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.36</v>
@@ -2323,16 +2323,16 @@
         <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2362,37 +2362,37 @@
         <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2443,19 +2443,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
@@ -2464,10 +2464,10 @@
         <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
         <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H16" t="n">
         <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,16 +2590,16 @@
         <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
         <v>1.89</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.54</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>1.19</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,25 +2716,25 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="n">
         <v>1.77</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,43 +2758,43 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2851,25 +2851,25 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.08</v>
       </c>
       <c r="P18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="R18" t="n">
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
         <v>1.85</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,13 +2917,13 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -700,7 +700,7 @@
         <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
@@ -841,13 +841,13 @@
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -961,10 +961,10 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
         <v>3.35</v>
@@ -973,76 +973,76 @@
         <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -1108,7 +1108,7 @@
         <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
         <v>2.44</v>
@@ -1117,7 +1117,7 @@
         <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
         <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1237,10 +1237,10 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
@@ -1252,7 +1252,7 @@
         <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
         <v>26</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.8</v>
       </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="n">
         <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
         <v>5.7</v>
@@ -2029,10 +2029,10 @@
         <v>5.1</v>
       </c>
       <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,19 +2041,19 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
         <v>3.6</v>
@@ -2062,7 +2062,7 @@
         <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
         <v>38</v>
@@ -2086,10 +2086,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G13" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.34</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.36</v>
       </c>
       <c r="J13" t="n">
         <v>6.4</v>
@@ -2185,19 +2185,19 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
@@ -2215,7 +2215,7 @@
         <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>50</v>
@@ -2248,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
         <v>95</v>
@@ -2290,13 +2290,13 @@
         <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
@@ -2317,22 +2317,22 @@
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
         <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2374,10 +2374,10 @@
         <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
         <v>40</v>
@@ -2446,28 +2446,28 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>5.6</v>
@@ -2593,10 +2593,10 @@
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
         <v>1.6</v>
@@ -2626,10 +2626,10 @@
         <v>15.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>75</v>
@@ -2650,7 +2650,7 @@
         <v>15.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -2698,10 +2698,10 @@
         <v>1.19</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
         <v>9</v>
@@ -2737,7 +2737,7 @@
         <v>2.16</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="Y17" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2764,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="AD17" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2773,7 +2773,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>44</v>
@@ -2833,16 +2833,16 @@
         <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
         <v>11.5</v>
       </c>
       <c r="K18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2896,7 +2896,7 @@
         <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2908,22 +2908,22 @@
         <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.2</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.01</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.5</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.19</v>
+        <v>2.32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.24</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.77</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>260</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>260</v>
+      </c>
+      <c r="AO5" t="n">
         <v>3.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>15</v>
       </c>
-      <c r="AH6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>1.93</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>1.93</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>9.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.6</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>1.34</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,61 +2278,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2.04</v>
+        <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.69</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>3.85</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16</v>
       </c>
-      <c r="Z15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2548,61 +2548,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="U16" t="n">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
-        <v>1.19</v>
+        <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="K17" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,28 +2716,28 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>14</v>
       </c>
-      <c r="AC17" t="n">
-        <v>22</v>
-      </c>
       <c r="AD17" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="H18" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" t="n">
         <v>25</v>
       </c>
-      <c r="I18" t="n">
-        <v>28</v>
-      </c>
       <c r="J18" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,45 +2893,315 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
         <v>2.3</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO20" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
         <v>1.98</v>
@@ -676,7 +676,7 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -811,31 +811,31 @@
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
@@ -847,10 +847,10 @@
         <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
         <v>1.51</v>
@@ -859,34 +859,34 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>1.89</v>
@@ -970,55 +970,55 @@
         <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1075,76 +1075,76 @@
         <v>13.5</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
         <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
         <v>1.05</v>
       </c>
       <c r="X5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>75</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>16.5</v>
@@ -1153,7 +1153,7 @@
         <v>190</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="n">
         <v>38</v>
@@ -1165,25 +1165,25 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,109 +1198,109 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.34</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>1.89</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,94 +1333,94 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>16</v>
       </c>
-      <c r="Z7" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1432,28 +1432,28 @@
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.39</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
         <v>2.64</v>
@@ -2161,7 +2161,7 @@
         <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9.4</v>
+        <v>1.42</v>
       </c>
       <c r="G14" t="n">
-        <v>9.800000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.34</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>3.85</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN15" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>32</v>
-      </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>1.94</v>
+        <v>9.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>1.36</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO16" t="n">
         <v>3.55</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.48</v>
+        <v>3.85</v>
       </c>
       <c r="G17" t="n">
-        <v>1.49</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>2.06</v>
       </c>
       <c r="J17" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
         <v>40</v>
       </c>
-      <c r="Y17" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO17" t="n">
         <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>1.19</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>22</v>
       </c>
-      <c r="I18" t="n">
-        <v>25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AK18" t="n">
         <v>22</v>
       </c>
-      <c r="AD18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.82</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2953,61 +2953,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>7.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,58 +3016,58 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>75</v>
       </c>
       <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11</v>
       </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G20" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,45 +3163,180 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
       </c>
       <c r="AL20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL21" t="n">
         <v>40</v>
       </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>2.3</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,37 +691,37 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -835,7 +835,7 @@
         <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
@@ -844,7 +844,7 @@
         <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -943,13 +943,13 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>970</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -985,7 +985,7 @@
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1078,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.25</v>
@@ -1087,7 +1087,7 @@
         <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1132,7 +1132,7 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1225,34 +1225,34 @@
         <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.89</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,25 +1285,25 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
         <v>3.55</v>
       </c>
       <c r="H7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.14</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1372,7 +1372,7 @@
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1387,10 +1387,10 @@
         <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.24</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1507,34 +1507,34 @@
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
         <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
@@ -1543,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
@@ -1552,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1579,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.01</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,109 +1885,109 @@
         <v>3.45</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,34 +2017,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
         <v>1.99</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
         <v>2.06</v>
@@ -2053,76 +2053,76 @@
         <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>2.08</v>
@@ -2188,76 +2188,76 @@
         <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2305,16 +2305,16 @@
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>2.38</v>
@@ -2323,76 +2323,76 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I15" t="n">
         <v>4.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.34</v>
@@ -2455,7 +2455,7 @@
         <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -2464,7 +2464,7 @@
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
         <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>9.6</v>
@@ -2566,13 +2566,13 @@
         <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J16" t="n">
         <v>6.4</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>1.99</v>
       </c>
       <c r="S16" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T16" t="n">
         <v>1.68</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="n">
         <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
@@ -2626,43 +2626,43 @@
         <v>48</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>95</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
         <v>24</v>
       </c>
-      <c r="AI16" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>2.06</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
         <v>1.61</v>
@@ -2746,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
         <v>18.5</v>
@@ -2767,34 +2767,34 @@
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2881,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
         <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>70</v>
@@ -2920,19 +2920,19 @@
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
         <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
         <v>5.7</v>
@@ -2986,7 +2986,7 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
@@ -2998,16 +2998,16 @@
         <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
         <v>38</v>
@@ -3025,28 +3025,28 @@
         <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
         <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3058,7 +3058,7 @@
         <v>13.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
@@ -3067,7 +3067,7 @@
         <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3103,16 +3103,16 @@
         <v>1.19</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T20" t="n">
         <v>2.16</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3241,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
         <v>12</v>
@@ -3271,7 +3271,7 @@
         <v>2.42</v>
       </c>
       <c r="S21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>2.06</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3322,10 +3322,10 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -811,10 +811,10 @@
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.5</v>
@@ -826,13 +826,13 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
         <v>2.22</v>
@@ -844,13 +844,13 @@
         <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
         <v>1.51</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -952,7 +952,7 @@
         <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
         <v>1.72</v>
@@ -982,7 +982,7 @@
         <v>1.53</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1096,10 +1096,10 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
         <v>3.15</v>
@@ -1108,16 +1108,16 @@
         <v>1.37</v>
       </c>
       <c r="R5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.84</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -1126,13 +1126,13 @@
         <v>1.05</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1141,10 +1141,10 @@
         <v>75</v>
       </c>
       <c r="AC5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>16.5</v>
@@ -1156,22 +1156,22 @@
         <v>55</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AL5" t="n">
         <v>180</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
         <v>270</v>
@@ -1231,7 +1231,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
@@ -1243,7 +1243,7 @@
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S6" t="n">
         <v>1.39</v>
@@ -1303,13 +1303,13 @@
         <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.1</v>
@@ -1360,34 +1360,34 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
         <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V7" t="n">
         <v>1.89</v>
@@ -1447,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1495,19 +1495,19 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1522,16 +1522,16 @@
         <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W8" t="n">
         <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
@@ -1555,7 +1555,7 @@
         <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
         <v>1.38</v>
@@ -1648,76 +1648,76 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
         <v>7.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,19 +1885,19 @@
         <v>3.45</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
         <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1915,7 +1915,7 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.17</v>
@@ -1924,7 +1924,7 @@
         <v>1.71</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.18</v>
@@ -1933,7 +1933,7 @@
         <v>1.81</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
         <v>28</v>
@@ -1969,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AJ11" t="n">
         <v>100</v>
@@ -2050,19 +2050,19 @@
         <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.24</v>
@@ -2074,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,34 +2083,34 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
@@ -2191,19 +2191,19 @@
         <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
         <v>24</v>
@@ -2323,16 +2323,16 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.8</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2452,10 +2452,10 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -2467,19 +2467,19 @@
         <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
@@ -2512,19 +2512,19 @@
         <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
         <v>70</v>
@@ -2560,22 +2560,22 @@
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H16" t="n">
         <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2602,13 +2602,13 @@
         <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X16" t="n">
         <v>42</v>
@@ -2650,16 +2650,16 @@
         <v>290</v>
       </c>
       <c r="AK16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
         <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
         <v>3.65</v>
@@ -2698,19 +2698,19 @@
         <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.95</v>
       </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2740,16 +2740,16 @@
         <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>14.5</v>
@@ -2779,16 +2779,16 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
         <v>65</v>
@@ -2839,13 +2839,13 @@
         <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2875,10 +2875,10 @@
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
@@ -2965,7 +2965,7 @@
         <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>6.4</v>
@@ -2980,13 +2980,13 @@
         <v>5.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
@@ -3001,7 +3001,7 @@
         <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
         <v>1.6</v>
@@ -3010,10 +3010,10 @@
         <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="X19" t="n">
         <v>36</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.18</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.19</v>
-      </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
         <v>24</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3127,7 +3127,7 @@
         <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q20" t="n">
         <v>1.38</v>
@@ -3139,22 +3139,22 @@
         <v>1.96</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
         <v>44</v>
       </c>
       <c r="Y20" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3247,10 +3247,10 @@
         <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3262,7 +3262,7 @@
         <v>1.08</v>
       </c>
       <c r="P21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.26</v>
@@ -3280,13 +3280,13 @@
         <v>1.88</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3301,7 +3301,7 @@
         <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="R2" t="n">
         <v>1.14</v>
@@ -709,7 +709,7 @@
         <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
         <v>1.59</v>
@@ -718,7 +718,7 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>970</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,67 +826,67 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -940,16 +940,16 @@
         <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>970</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="K4" t="n">
         <v>970</v>
@@ -961,31 +961,31 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>19</v>
@@ -1084,10 +1084,10 @@
         <v>1.25</v>
       </c>
       <c r="J5" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,31 +1096,31 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.05</v>
@@ -1129,31 +1129,31 @@
         <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC5" t="n">
         <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1165,19 +1165,19 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AL5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM5" t="n">
         <v>180</v>
       </c>
-      <c r="AM5" t="n">
-        <v>190</v>
-      </c>
       <c r="AN5" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
         <v>11</v>
@@ -1237,25 +1237,25 @@
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.81</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
         <v>3.9</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,31 +1285,31 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1375,13 +1375,13 @@
         <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
         <v>1.55</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>29</v>
@@ -1435,7 +1435,7 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>36</v>
@@ -1444,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1501,16 +1501,16 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
         <v>1.65</v>
@@ -1525,10 +1525,10 @@
         <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1579,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>10.5</v>
@@ -1621,7 +1621,7 @@
         <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -1633,91 +1633,91 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P9" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
         <v>7.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="V9" t="n">
         <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>970</v>
       </c>
-      <c r="AI9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
-      </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,52 +1747,52 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
         <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
@@ -1801,58 +1801,58 @@
         <v>1.52</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
         <v>2.22</v>
@@ -1903,13 +1903,13 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
         <v>2.14</v>
@@ -1918,76 +1918,76 @@
         <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>1.71</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W11" t="n">
         <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,31 +2020,31 @@
         <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
         <v>2.06</v>
@@ -2053,76 +2053,76 @@
         <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>1.74</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.98</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
         <v>970</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
         <v>970</v>
       </c>
       <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
         <v>970</v>
       </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2173,10 +2173,10 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2185,79 +2185,79 @@
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>1.74</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>9.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,85 +2311,85 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
@@ -2440,19 +2440,19 @@
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q15" t="n">
         <v>2.02</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>70</v>
@@ -2524,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>70</v>
@@ -2569,31 +2569,31 @@
         <v>1.36</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
         <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="n">
         <v>1.95</v>
@@ -2605,16 +2605,16 @@
         <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X16" t="n">
         <v>42</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
         <v>11.5</v>
@@ -2623,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="n">
         <v>15.5</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
         <v>34</v>
@@ -2650,13 +2650,13 @@
         <v>290</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
         <v>80</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>70</v>
@@ -2698,40 +2698,40 @@
         <v>3.9</v>
       </c>
       <c r="H17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.06</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.08</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
         <v>1.61</v>
@@ -2740,16 +2740,16 @@
         <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W17" t="n">
         <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
         <v>14.5</v>
@@ -2782,7 +2782,7 @@
         <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
@@ -2845,19 +2845,19 @@
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
         <v>2.1</v>
@@ -2866,7 +2866,7 @@
         <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
         <v>1.92</v>
@@ -2878,7 +2878,7 @@
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
@@ -2902,7 +2902,7 @@
         <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>
@@ -2923,10 +2923,10 @@
         <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -2968,40 +2968,40 @@
         <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
         <v>5.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
         <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
         <v>1.6</v>
@@ -3013,7 +3013,7 @@
         <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
         <v>36</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3061,7 +3061,7 @@
         <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
         <v>4.5</v>
@@ -3103,40 +3103,40 @@
         <v>1.18</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K20" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="K20" t="n">
-        <v>10</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
         <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
         <v>2.18</v>
@@ -3151,7 +3151,7 @@
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="n">
         <v>990</v>
@@ -3169,7 +3169,7 @@
         <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.13</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.14</v>
-      </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -3271,22 +3271,22 @@
         <v>2.42</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T21" t="n">
         <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3301,40 +3301,40 @@
         <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK21" t="n">
         <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -688,31 +688,31 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.42</v>
+        <v>2.62</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -721,58 +721,58 @@
         <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>970</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>970</v>
       </c>
       <c r="J4" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>970</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>1.66</v>
@@ -976,7 +976,7 @@
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.48</v>
@@ -985,7 +985,7 @@
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="H5" t="n">
         <v>1.2</v>
@@ -1120,7 +1120,7 @@
         <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
         <v>1.05</v>
@@ -1141,7 +1141,7 @@
         <v>65</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="n">
         <v>14.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
@@ -1486,7 +1486,7 @@
         <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1510,7 +1510,7 @@
         <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
         <v>1.65</v>
@@ -1525,7 +1525,7 @@
         <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W8" t="n">
         <v>1.43</v>
@@ -1633,19 +1633,19 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
@@ -1654,70 +1654,70 @@
         <v>7.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
         <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1780,7 +1780,7 @@
         <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1816,7 +1816,7 @@
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>14</v>
@@ -1978,7 +1978,7 @@
         <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2056,10 +2056,10 @@
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
         <v>2.14</v>
@@ -2155,13 +2155,13 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
@@ -2200,10 +2200,10 @@
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2221,7 +2221,7 @@
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -2341,10 +2341,10 @@
         <v>2.56</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2359,7 +2359,7 @@
         <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,7 +2383,7 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2458,7 +2458,7 @@
         <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>3.6</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H16" t="n">
         <v>1.35</v>
@@ -2614,7 +2614,7 @@
         <v>42</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
         <v>11.5</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG16" t="n">
         <v>34</v>
@@ -2650,10 +2650,10 @@
         <v>290</v>
       </c>
       <c r="AK16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
         <v>80</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G17" t="n">
         <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
@@ -2740,7 +2740,7 @@
         <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W17" t="n">
         <v>1.34</v>
@@ -2770,7 +2770,7 @@
         <v>18.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>15.5</v>
@@ -2782,7 +2782,7 @@
         <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
@@ -2794,7 +2794,7 @@
         <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -2869,7 +2869,7 @@
         <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
@@ -2965,10 +2965,10 @@
         <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
         <v>6.8</v>
@@ -3001,7 +3001,7 @@
         <v>1.92</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
         <v>1.6</v>
@@ -3013,7 +3013,7 @@
         <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X19" t="n">
         <v>36</v>
@@ -3067,7 +3067,7 @@
         <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3139,7 +3139,7 @@
         <v>1.95</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
@@ -3154,7 +3154,7 @@
         <v>46</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3238,7 +3238,7 @@
         <v>1.13</v>
       </c>
       <c r="H21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" t="n">
         <v>29</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -3268,7 +3268,7 @@
         <v>1.26</v>
       </c>
       <c r="R21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S21" t="n">
         <v>1.66</v>
@@ -3277,16 +3277,16 @@
         <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>390</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3322,13 +3322,13 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK21" t="n">
         <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.62</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.3</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>140</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>8.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>18.5</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>9.6</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.6</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
         <v>980</v>
       </c>
-      <c r="Y5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>60</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
       </c>
       <c r="AI5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>980</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO5" t="n">
         <v>180</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>9.4</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>1.59</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22</v>
+        <v>970</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>1.99</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>18.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>1.19</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>1.24</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>6.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.38</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>7.6</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>5.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AG9" t="n">
         <v>55</v>
       </c>
-      <c r="AA9" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>420</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>1.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>1.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>3.9</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="n">
         <v>20</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN11" t="n">
         <v>22</v>
       </c>
-      <c r="AF11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>970</v>
-      </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.15</v>
       </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>21</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO13" t="n">
         <v>40</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.39</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>3.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.42</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13</v>
-      </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K16" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>8.6</v>
+        <v>2.22</v>
       </c>
       <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.12</v>
       </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>1.83</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>2.02</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.08</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>3.45</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>32</v>
-      </c>
       <c r="AA18" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>70</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>22</v>
-      </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>9.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51</v>
+        <v>9.6</v>
       </c>
       <c r="H19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J19" t="n">
         <v>6.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.6</v>
-      </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="S19" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.17</v>
+        <v>3.8</v>
       </c>
       <c r="W19" t="n">
-        <v>2.98</v>
+        <v>1.11</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="n">
         <v>70</v>
       </c>
-      <c r="AA19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.17</v>
+        <v>3.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.18</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>24</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>25</v>
       </c>
-      <c r="J20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.84</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3223,120 +3223,660 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="X22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pafos FC</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Bayern Munich</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Union St Gilloise</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>1.12</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>1.13</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>26</v>
       </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="I25" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.17</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M25" t="n">
         <v>1.01</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N25" t="n">
         <v>12</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O25" t="n">
         <v>1.08</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P25" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q25" t="n">
         <v>1.26</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R25" t="n">
         <v>2.44</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S25" t="n">
         <v>1.66</v>
       </c>
-      <c r="T21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.89</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V25" t="n">
         <v>1.03</v>
       </c>
-      <c r="W21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="W25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD25" t="n">
         <v>990</v>
       </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>9.6</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL25" t="n">
         <v>40</v>
       </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
         <v>2.24</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
         <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -1234,7 +1234,7 @@
         <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
         <v>1.65</v>
@@ -1264,7 +1264,7 @@
         <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I8" t="n">
-        <v>970</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>970</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,88 +1501,88 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1648,7 +1648,7 @@
         <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S9" t="n">
         <v>2.02</v>
@@ -1657,7 +1657,7 @@
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
         <v>5.1</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.34</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.35</v>
       </c>
       <c r="H10" t="n">
         <v>9.4</v>
@@ -1765,94 +1765,94 @@
         <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>2.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
         <v>3.9</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
         <v>2.12</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -1984,7 +1984,7 @@
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.25</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.22</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
@@ -2056,19 +2056,19 @@
         <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
         <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2083,7 +2083,7 @@
         <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2107,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>2.8</v>
@@ -2179,13 +2179,13 @@
         <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
         <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2221,7 +2221,7 @@
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>14</v>
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>50</v>
@@ -2290,7 +2290,7 @@
         <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
         <v>5.1</v>
@@ -2299,19 +2299,19 @@
         <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
         <v>3.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
         <v>1.76</v>
@@ -2326,7 +2326,7 @@
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
         <v>2.62</v>
@@ -2338,7 +2338,7 @@
         <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
         <v>6.6</v>
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
         <v>15.5</v>
@@ -2488,19 +2488,19 @@
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2734,16 +2734,16 @@
         <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2755,7 +2755,7 @@
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
@@ -2767,7 +2767,7 @@
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2791,13 +2791,13 @@
         <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +2845,7 @@
         <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2962,76 +2962,76 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="I19" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="J19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K19" t="n">
         <v>6.4</v>
       </c>
-      <c r="K19" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.99</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.97</v>
-      </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="W19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X19" t="n">
         <v>42</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
         <v>10.5</v>
@@ -3040,25 +3040,25 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
@@ -3067,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="20">
@@ -3121,7 +3121,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
@@ -3130,13 +3130,13 @@
         <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R20" t="n">
         <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
@@ -3145,7 +3145,7 @@
         <v>2.52</v>
       </c>
       <c r="V20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W20" t="n">
         <v>1.34</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
@@ -3244,25 +3244,25 @@
         <v>4.6</v>
       </c>
       <c r="J21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.7</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3274,7 +3274,7 @@
         <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
@@ -3283,37 +3283,37 @@
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>20</v>
@@ -3328,13 +3328,13 @@
         <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>70</v>
@@ -3370,19 +3370,19 @@
         <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>6.4</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.23</v>
@@ -3418,7 +3418,7 @@
         <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
         <v>36</v>
@@ -3454,7 +3454,7 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
         <v>15.5</v>
@@ -3538,13 +3538,13 @@
         <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
         <v>1.97</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
         <v>1.79</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
@@ -3673,7 +3673,7 @@
         <v>2.02</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
         <v>3.6</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G25" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="H25" t="n">
+        <v>24</v>
+      </c>
+      <c r="I25" t="n">
         <v>26</v>
       </c>
-      <c r="I25" t="n">
-        <v>28</v>
-      </c>
       <c r="J25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
         <v>1.17</v>
@@ -3796,34 +3796,34 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.26</v>
       </c>
       <c r="R25" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="S25" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W25" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>120</v>
@@ -3838,25 +3838,25 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD25" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,16 +3865,16 @@
         <v>9.6</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>2.74</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="H3" t="n">
         <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>140</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.01</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.06</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
         <v>2.06</v>
@@ -838,76 +838,76 @@
         <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -928,12 +928,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.12</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.59</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.62</v>
       </c>
       <c r="G8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.05</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.9</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>18.5</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>1.19</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.24</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.8</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.81</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>5.1</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.33</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.22</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.94</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>1.86</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.1</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>18.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.68</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.89</v>
+        <v>5.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD11" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="12">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2041,16 +2041,16 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
         <v>1.65</v>
@@ -2059,46 +2059,46 @@
         <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2110,25 +2110,25 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.82</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="n">
         <v>14</v>
       </c>
-      <c r="Y13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>55</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.12</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="X14" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.7</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12</v>
       </c>
-      <c r="AG14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM14" t="n">
         <v>110</v>
       </c>
-      <c r="AM14" t="n">
-        <v>440</v>
-      </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>3.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.35</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>2.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="n">
-        <v>970</v>
+        <v>220</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AN15" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>2.84</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK16" t="n">
         <v>34</v>
       </c>
-      <c r="Z16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>17</v>
-      </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.8</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="W17" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>970</v>
       </c>
-      <c r="AA17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>55</v>
-      </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AJ17" t="n">
         <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.45</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>1.54</v>
       </c>
       <c r="H18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.04</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.82</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>2.84</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF18" t="n">
         <v>12</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>70</v>
-      </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.38</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>1.39</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>3.55</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.12</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.5</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AF19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>260</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.85</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
         <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
         <v>70</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.6</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>70</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>8.6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J22" t="n">
         <v>6.4</v>
       </c>
-      <c r="I22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.23</v>
@@ -3391,88 +3391,88 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>3.65</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>1.12</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
         <v>70</v>
       </c>
-      <c r="AA22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.16</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.17</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
+        <v>2.06</v>
       </c>
       <c r="I23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA23" t="n">
         <v>25</v>
       </c>
-      <c r="J23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.84</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.91</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="U24" t="n">
         <v>2.02</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -3763,120 +3763,390 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pafos FC</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Bayern Munich</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Union St Gilloise</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F27" t="n">
         <v>1.13</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H27" t="n">
         <v>24</v>
       </c>
-      <c r="I25" t="n">
-        <v>26</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
         <v>12</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K27" t="n">
         <v>13</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>1.17</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M27" t="n">
         <v>1.01</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N27" t="n">
         <v>11.5</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O27" t="n">
         <v>1.08</v>
       </c>
-      <c r="P25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="P27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.04</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W27" t="n">
         <v>8</v>
       </c>
-      <c r="X25" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="X27" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
         <v>18</v>
       </c>
-      <c r="AC25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AC27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG27" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK27" t="n">
         <v>13</v>
       </c>
-      <c r="AL25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AL27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -679,13 +679,13 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,7 +697,7 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
         <v>2.02</v>
@@ -706,7 +706,7 @@
         <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
         <v>1.98</v>
@@ -718,61 +718,61 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
         <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,31 +829,31 @@
         <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
         <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -904,10 +904,10 @@
         <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1384,22 +1384,22 @@
         <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1408,7 +1408,7 @@
         <v>170</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
@@ -1423,7 +1423,7 @@
         <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1438,7 +1438,7 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>240</v>
@@ -1480,7 +1480,7 @@
         <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
@@ -1489,7 +1489,7 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1516,7 +1516,7 @@
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
@@ -1534,7 +1534,7 @@
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1663,61 +1663,61 @@
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
         <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1756,16 +1756,16 @@
         <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1792,16 +1792,16 @@
         <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
         <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -1882,67 +1882,67 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
         <v>1.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -1954,13 +1954,13 @@
         <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="n">
         <v>55</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.55</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
         <v>2.12</v>
@@ -2068,7 +2068,7 @@
         <v>1.89</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2080,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>20</v>
@@ -2164,10 +2164,10 @@
         <v>2.22</v>
       </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2185,7 +2185,7 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.67</v>
@@ -2197,16 +2197,16 @@
         <v>1.53</v>
       </c>
       <c r="U13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
@@ -2230,7 +2230,7 @@
         <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2254,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
         <v>10.5</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
         <v>11</v>
@@ -2302,7 +2302,7 @@
         <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.22</v>
@@ -2323,16 +2323,16 @@
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>2.06</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
@@ -2341,7 +2341,7 @@
         <v>3.9</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
@@ -2350,7 +2350,7 @@
         <v>120</v>
       </c>
       <c r="AA14" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2371,13 +2371,13 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2386,13 +2386,13 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>3.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +2434,7 @@
         <v>5.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
         <v>3.1</v>
@@ -2470,16 +2470,16 @@
         <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
         <v>1.89</v>
       </c>
       <c r="X15" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
         <v>50</v>
@@ -2488,7 +2488,7 @@
         <v>240</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
@@ -2500,34 +2500,34 @@
         <v>170</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM15" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2584,7 +2584,7 @@
         <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
         <v>1.74</v>
@@ -2605,13 +2605,13 @@
         <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
         <v>11.5</v>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>40</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
         <v>2.52</v>
@@ -2704,16 +2704,16 @@
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -2722,7 +2722,7 @@
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
         <v>1.78</v>
@@ -2740,10 +2740,10 @@
         <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
@@ -2752,31 +2752,31 @@
         <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
         <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>970</v>
@@ -2785,19 +2785,19 @@
         <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2851,85 +2851,85 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
         <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
         <v>15.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>120</v>
@@ -2965,22 +2965,22 @@
         <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2992,10 +2992,10 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
@@ -3013,7 +3013,7 @@
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3025,7 +3025,7 @@
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
@@ -3103,19 +3103,19 @@
         <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
         <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3124,7 +3124,7 @@
         <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
         <v>2.16</v>
@@ -3151,13 +3151,13 @@
         <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
         <v>970</v>
@@ -3166,10 +3166,10 @@
         <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>22</v>
@@ -3178,13 +3178,13 @@
         <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
         <v>70</v>
@@ -3193,16 +3193,16 @@
         <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3256,19 +3256,19 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
         <v>3.6</v>
@@ -3283,7 +3283,7 @@
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
         <v>13.5</v>
@@ -3298,7 +3298,7 @@
         <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>8.199999999999999</v>
@@ -3334,7 +3334,7 @@
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO21" t="n">
         <v>70</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.37</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.38</v>
       </c>
       <c r="J22" t="n">
         <v>6.4</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3397,13 +3397,13 @@
         <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
         <v>1.99</v>
@@ -3415,7 +3415,7 @@
         <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W22" t="n">
         <v>1.12</v>
@@ -3436,7 +3436,7 @@
         <v>48</v>
       </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD22" t="n">
         <v>10.5</v>
@@ -3445,10 +3445,10 @@
         <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -3457,10 +3457,10 @@
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK22" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL22" t="n">
         <v>75</v>
@@ -3472,7 +3472,7 @@
         <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="23">
@@ -3508,16 +3508,16 @@
         <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3532,7 +3532,7 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
         <v>1.71</v>
@@ -3544,13 +3544,13 @@
         <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U23" t="n">
         <v>2.52</v>
       </c>
       <c r="V23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
         <v>1.35</v>
@@ -3649,13 +3649,13 @@
         <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3679,13 +3679,13 @@
         <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U24" t="n">
         <v>2.02</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.98</v>
@@ -3700,7 +3700,7 @@
         <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
         <v>8.6</v>
@@ -3721,7 +3721,7 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
         <v>70</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H25" t="n">
         <v>6.6</v>
@@ -3784,10 +3784,10 @@
         <v>6.8</v>
       </c>
       <c r="J25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.23</v>
@@ -3796,7 +3796,7 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.13</v>
@@ -3823,22 +3823,22 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X25" t="n">
         <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA25" t="n">
         <v>180</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -3877,7 +3877,7 @@
         <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -3913,10 +3913,10 @@
         <v>1.17</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
         <v>9.6</v>
@@ -3925,13 +3925,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O26" t="n">
         <v>1.12</v>
@@ -3943,13 +3943,13 @@
         <v>1.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S26" t="n">
         <v>1.97</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.79</v>
@@ -3961,7 +3961,7 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y26" t="n">
         <v>85</v>
@@ -3979,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="AD26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -4084,7 +4084,7 @@
         <v>1.68</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1.94</v>
@@ -4099,7 +4099,7 @@
         <v>990</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,13 +4120,13 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4135,10 +4135,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -691,34 +691,34 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -736,7 +736,7 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="n">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
         <v>32</v>
       </c>
-      <c r="AI3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.67</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1198,49 +1198,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
@@ -1249,58 +1249,58 @@
         <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
         <v>170</v>
       </c>
-      <c r="AB7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO7" t="n">
         <v>240</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>1.53</v>
       </c>
       <c r="G8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.96</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.09</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
         <v>60</v>
       </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
         <v>130</v>
       </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.52</v>
       </c>
-      <c r="W10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF10" t="n">
         <v>20</v>
       </c>
-      <c r="AA10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>9.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>190</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
         <v>55</v>
       </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>200</v>
-      </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.12</v>
+        <v>2.96</v>
       </c>
       <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.65</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
         <v>20</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>17.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>1.19</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.78</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.81</v>
+        <v>5.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>310</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>1.34</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9.6</v>
       </c>
-      <c r="I14" t="n">
+      <c r="AD14" t="n">
         <v>11</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG14" t="n">
         <v>14</v>
       </c>
-      <c r="AC14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
       <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
         <v>32</v>
       </c>
-      <c r="AI14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.9</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.12</v>
       </c>
-      <c r="H15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.76</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>2.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.35</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.12</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>8</v>
+        <v>2.46</v>
       </c>
       <c r="T15" t="n">
-        <v>2.62</v>
+        <v>1.56</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>2.72</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="X15" t="n">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>490</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>380</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>1.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="S16" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>3.95</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AD16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14</v>
       </c>
-      <c r="AE16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL16" t="n">
         <v>34</v>
       </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
       <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO16" t="n">
         <v>130</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.05</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>2.98</v>
+        <v>7.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>1.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>970</v>
+        <v>220</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="T19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.64</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
         <v>90</v>
       </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>85</v>
-      </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>1.48</v>
       </c>
       <c r="H20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.06</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>970</v>
       </c>
-      <c r="AB20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>970</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>5.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X22" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AD22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AJ22" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>9.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>3.7</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
+        <v>290</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="n">
         <v>70</v>
       </c>
-      <c r="AK23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>29</v>
-      </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>15</v>
-      </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>70</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>23</v>
-      </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
         <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.23</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W25" t="n">
-        <v>2.96</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AL25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="G26" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>9.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="S26" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>2.98</v>
       </c>
       <c r="X26" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK26" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AL26" t="n">
         <v>22</v>
       </c>
-      <c r="AD26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
-      </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>430</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -4033,73 +4033,73 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="G27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="S27" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="Y27" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,22 +4108,22 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>46</v>
@@ -4132,21 +4132,291 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>24</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
         <v>2.32</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO29" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
         <v>1.9</v>
@@ -676,13 +676,13 @@
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -715,7 +715,7 @@
         <v>1.82</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
         <v>2.1</v>
@@ -736,7 +736,7 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -811,7 +811,7 @@
         <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -841,7 +841,7 @@
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
@@ -850,7 +850,7 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
@@ -883,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
         <v>30</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
         <v>2.76</v>
@@ -946,16 +946,16 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -985,7 +985,7 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1078,7 +1078,7 @@
         <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -1129,52 +1129,52 @@
         <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
         <v>370</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
         <v>170</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
         <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO5" t="n">
         <v>220</v>
@@ -1384,7 +1384,7 @@
         <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.58</v>
@@ -1399,7 +1399,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
         <v>44</v>
@@ -1411,22 +1411,22 @@
         <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
         <v>170</v>
@@ -1435,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
         <v>90</v>
@@ -1531,7 +1531,7 @@
         <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>5.7</v>
       </c>
       <c r="AC8" t="n">
         <v>970</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AK8" t="n">
         <v>36</v>
@@ -1627,31 +1627,31 @@
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
         <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P9" t="n">
         <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
         <v>2.16</v>
@@ -1666,55 +1666,55 @@
         <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="n">
         <v>170</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>180</v>
@@ -1750,13 +1750,13 @@
         <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.86</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1765,22 +1765,22 @@
         <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1789,25 +1789,25 @@
         <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.52</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
@@ -1816,19 +1816,19 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
@@ -1837,7 +1837,7 @@
         <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
         <v>42</v>
@@ -1849,10 +1849,10 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
         <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1906,76 +1906,76 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
         <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
         <v>2.62</v>
@@ -2029,7 +2029,7 @@
         <v>2.96</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
@@ -2047,22 +2047,22 @@
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
         <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
         <v>1.51</v>
@@ -2071,58 +2071,58 @@
         <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
         <v>1.19</v>
@@ -2164,10 +2164,10 @@
         <v>1.24</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="K13" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L13" t="n">
         <v>1.18</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2188,7 +2188,7 @@
         <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2203,37 +2203,37 @@
         <v>5.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>190</v>
       </c>
       <c r="AG13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
@@ -2245,10 +2245,10 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AM13" t="n">
         <v>210</v>
@@ -2257,7 +2257,7 @@
         <v>310</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.2</v>
@@ -2440,34 +2440,34 @@
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V15" t="n">
         <v>1.89</v>
@@ -2479,19 +2479,19 @@
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
         <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
@@ -2500,7 +2500,7 @@
         <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2512,22 +2512,22 @@
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>1.32</v>
       </c>
       <c r="G16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
         <v>9.800000000000001</v>
@@ -2572,7 +2572,7 @@
         <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2590,16 +2590,16 @@
         <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>1.84</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
@@ -2608,61 +2608,61 @@
         <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM16" t="n">
         <v>110</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
       <c r="AN16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.18</v>
       </c>
       <c r="N17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O17" t="n">
         <v>1.78</v>
@@ -2731,7 +2731,7 @@
         <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
         <v>2.6</v>
@@ -2743,13 +2743,13 @@
         <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
         <v>48</v>
@@ -2758,10 +2758,10 @@
         <v>230</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>32</v>
@@ -2776,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
         <v>220</v>
@@ -2836,19 +2836,19 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.2</v>
@@ -2866,73 +2866,73 @@
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
         <v>1.61</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>44</v>
       </c>
-      <c r="AF18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>50</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -2983,7 +2983,7 @@
         <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -2995,13 +2995,13 @@
         <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
@@ -3010,10 +3010,10 @@
         <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X19" t="n">
         <v>19.5</v>
@@ -3031,13 +3031,13 @@
         <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3046,7 +3046,7 @@
         <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>50</v>
@@ -3064,7 +3064,7 @@
         <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3106,7 +3106,7 @@
         <v>7.2</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3118,7 +3118,7 @@
         <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>5.2</v>
@@ -3130,13 +3130,13 @@
         <v>2.44</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.58</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
         <v>1.8</v>
@@ -3145,61 +3145,61 @@
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
         <v>250</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
         <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
         <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
         <v>120</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3259,31 +3259,31 @@
         <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W21" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3295,13 +3295,13 @@
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3319,7 +3319,7 @@
         <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
         <v>970</v>
@@ -3331,7 +3331,7 @@
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K22" t="n">
         <v>4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3415,64 +3415,64 @@
         <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -3505,19 +3505,19 @@
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I23" t="n">
         <v>1.35</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.37</v>
-      </c>
       <c r="J23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3535,22 +3535,22 @@
         <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.97</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="W23" t="n">
         <v>1.12</v>
@@ -3565,16 +3565,16 @@
         <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB23" t="n">
         <v>48</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>12</v>
@@ -3589,13 +3589,13 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
         <v>290</v>
       </c>
       <c r="AK23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
         <v>80</v>
@@ -3607,7 +3607,7 @@
         <v>70</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>3.85</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3661,22 +3661,22 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
         <v>1.62</v>
@@ -3685,13 +3685,13 @@
         <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W24" t="n">
         <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
@@ -3703,19 +3703,19 @@
         <v>25</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>18.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
         <v>15.5</v>
@@ -3727,7 +3727,7 @@
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
         <v>40</v>
@@ -3739,7 +3739,7 @@
         <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
         <v>11</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.82</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.83</v>
-      </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
         <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
@@ -3808,22 +3808,22 @@
         <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
         <v>3.9</v>
       </c>
       <c r="T25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.97</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3835,22 +3835,22 @@
         <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3868,16 +3868,16 @@
         <v>19.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
         <v>13.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>1.49</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.23</v>
@@ -3949,7 +3949,7 @@
         <v>2.06</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U26" t="n">
         <v>2.58</v>
@@ -3958,13 +3958,13 @@
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
         <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="n">
         <v>65</v>
@@ -3994,10 +3994,10 @@
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>13.5</v>
@@ -4012,7 +4012,7 @@
         <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" t="n">
         <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
@@ -4078,7 +4078,7 @@
         <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S27" t="n">
         <v>1.97</v>
@@ -4093,7 +4093,7 @@
         <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>46</v>
@@ -4123,7 +4123,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>46</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I28" t="n">
         <v>4.8</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
         <v>3.8</v>
@@ -4201,7 +4201,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
@@ -4213,10 +4213,10 @@
         <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T28" t="n">
         <v>1.9</v>
@@ -4225,10 +4225,10 @@
         <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X28" t="n">
         <v>13.5</v>
@@ -4258,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
         <v>19.5</v>
@@ -4270,7 +4270,7 @@
         <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
         <v>38</v>
@@ -4279,7 +4279,7 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO28" t="n">
         <v>70</v>
@@ -4315,7 +4315,7 @@
         <v>1.13</v>
       </c>
       <c r="G29" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H29" t="n">
         <v>24</v>
@@ -4336,22 +4336,22 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
         <v>1.08</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="S29" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
@@ -4366,10 +4366,10 @@
         <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,10 +4378,10 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4390,22 +4390,22 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>38</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -736,7 +736,7 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -850,7 +850,7 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -958,7 +958,7 @@
         <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>2.8</v>
@@ -985,7 +985,7 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1075,19 +1075,19 @@
         <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1102,10 +1102,10 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1135,7 +1135,7 @@
         <v>95</v>
       </c>
       <c r="AA5" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1174,7 +1174,7 @@
         <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>220</v>
@@ -1276,7 +1276,7 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
@@ -1291,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1654,19 +1654,19 @@
         <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
         <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1714,7 +1714,7 @@
         <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
         <v>180</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
         <v>3.25</v>
@@ -1762,7 +1762,7 @@
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.48</v>
@@ -1771,7 +1771,7 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O10" t="n">
         <v>1.42</v>
@@ -1786,28 +1786,28 @@
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
         <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
@@ -1816,28 +1816,28 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
         <v>42</v>
@@ -1849,7 +1849,7 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
         <v>46</v>
@@ -1891,10 +1891,10 @@
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1906,28 +1906,28 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
         <v>1.23</v>
@@ -1936,10 +1936,10 @@
         <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>40</v>
@@ -1951,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
@@ -1960,16 +1960,16 @@
         <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>27</v>
@@ -2020,16 +2020,16 @@
         <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
         <v>1.81</v>
@@ -2065,16 +2065,16 @@
         <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2086,13 +2086,13 @@
         <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -2101,7 +2101,7 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2110,7 +2110,7 @@
         <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
         <v>46</v>
@@ -2122,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="I13" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="J13" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="W13" t="n">
         <v>1.05</v>
@@ -2209,16 +2209,16 @@
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
@@ -2227,37 +2227,37 @@
         <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AL13" t="n">
         <v>190</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
         <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I14" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2323,22 +2323,22 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
         <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
@@ -2350,37 +2350,37 @@
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2389,10 +2389,10 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2446,22 +2446,22 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
         <v>1.58</v>
@@ -2509,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2587,28 +2587,28 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
@@ -2623,16 +2623,16 @@
         <v>360</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
@@ -2644,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
         <v>12.5</v>
@@ -2656,13 +2656,13 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2692,97 +2692,97 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.08</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H17" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R17" t="n">
         <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
         <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AJ17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
         <v>48</v>
@@ -2791,13 +2791,13 @@
         <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AN17" t="n">
         <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
@@ -2854,10 +2854,10 @@
         <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
         <v>2.14</v>
@@ -2905,7 +2905,7 @@
         <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3238,7 +3238,7 @@
         <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
         <v>3.4</v>
@@ -3280,7 +3280,7 @@
         <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
         <v>1.68</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>46</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3418,7 +3418,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
@@ -3427,7 +3427,7 @@
         <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
         <v>32</v>
@@ -3448,7 +3448,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -3457,10 +3457,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3469,7 +3469,7 @@
         <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G23" t="n">
         <v>9.199999999999999</v>
@@ -3511,13 +3511,13 @@
         <v>1.34</v>
       </c>
       <c r="I23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J23" t="n">
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3535,22 +3535,22 @@
         <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="W23" t="n">
         <v>1.12</v>
@@ -3562,16 +3562,16 @@
         <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>48</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
@@ -3592,22 +3592,22 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL23" t="n">
         <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>70</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J24" t="n">
         <v>3.95</v>
@@ -3661,7 +3661,7 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
@@ -3673,10 +3673,10 @@
         <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
         <v>1.62</v>
@@ -3685,16 +3685,16 @@
         <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="W24" t="n">
         <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>14</v>
@@ -3709,7 +3709,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
         <v>18.5</v>
@@ -3718,13 +3718,13 @@
         <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ24" t="n">
         <v>75</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.8</v>
@@ -3802,28 +3802,28 @@
         <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" t="n">
         <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S25" t="n">
         <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3844,7 +3844,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>75</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K26" t="n">
         <v>5.6</v>
@@ -3934,7 +3934,7 @@
         <v>7.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
         <v>3.25</v>
@@ -3943,7 +3943,7 @@
         <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S26" t="n">
         <v>2.06</v>
@@ -3958,7 +3958,7 @@
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X26" t="n">
         <v>34</v>
@@ -4009,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO26" t="n">
         <v>48</v>
@@ -4051,13 +4051,13 @@
         <v>24</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K27" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
@@ -4066,25 +4066,25 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="S27" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U27" t="n">
         <v>1.78</v>
@@ -4093,7 +4093,7 @@
         <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
         <v>46</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
         <v>22</v>
@@ -4123,7 +4123,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
         <v>46</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="AO27" t="n">
         <v>430</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G28" t="n">
         <v>1.94</v>
@@ -4192,10 +4192,10 @@
         <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4204,7 +4204,7 @@
         <v>3.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>1.93</v>
@@ -4246,7 +4246,7 @@
         <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
         <v>18.5</v>
@@ -4279,7 +4279,7 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO28" t="n">
         <v>70</v>
@@ -4318,103 +4318,103 @@
         <v>1.14</v>
       </c>
       <c r="H29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P29" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R29" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="S29" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="V29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
         <v>1.7</v>
@@ -811,7 +811,7 @@
         <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -1099,7 +1099,7 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
         <v>2.12</v>
@@ -1111,7 +1111,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
@@ -1126,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>95</v>
@@ -1141,7 +1141,7 @@
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>40</v>
@@ -1150,7 +1150,7 @@
         <v>170</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>970</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -1333,34 +1333,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
         <v>1.12</v>
@@ -1375,7 +1375,7 @@
         <v>1.41</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.14</v>
@@ -1384,76 +1384,76 @@
         <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>2.58</v>
       </c>
       <c r="X7" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK7" t="n">
         <v>28</v>
       </c>
-      <c r="AE7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.54</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="n">
         <v>110</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.54</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.58</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN10" t="n">
         <v>20</v>
       </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>42</v>
-      </c>
       <c r="AO10" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="n">
         <v>90</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>160</v>
-      </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>19.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>1.17</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>1.21</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="L12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.36</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>5.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
         <v>13.5</v>
       </c>
-      <c r="G13" t="n">
-        <v>21</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X13" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>280</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>3.15</v>
       </c>
     </row>
     <row r="14">
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2317,7 +2317,7 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
@@ -2344,13 +2344,13 @@
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>1.35</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.12</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>3.65</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK15" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AL15" t="n">
         <v>28</v>
       </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>3.95</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="J16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB16" t="n">
         <v>6.4</v>
       </c>
-      <c r="K16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="X16" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
       <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
         <v>120</v>
       </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>28</v>
-      </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.95</v>
+        <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.61</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X17" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>14</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="AA17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>120</v>
-      </c>
       <c r="AM17" t="n">
-        <v>510</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>370</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
         <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="n">
         <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>9.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.8</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
         <v>27</v>
       </c>
-      <c r="AA19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>6.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21">
@@ -3223,28 +3223,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>3.9</v>
@@ -3256,94 +3256,94 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>3.55</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11</v>
       </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>34</v>
-      </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>21</v>
       </c>
-      <c r="AI22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>80</v>
-      </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H23" t="n">
         <v>1.34</v>
       </c>
       <c r="I23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J23" t="n">
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3535,25 +3535,25 @@
         <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T23" t="n">
         <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X23" t="n">
         <v>46</v>
@@ -3571,7 +3571,7 @@
         <v>48</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
@@ -3580,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="n">
         <v>34</v>
@@ -3595,7 +3595,7 @@
         <v>360</v>
       </c>
       <c r="AK23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
         <v>80</v>
@@ -3604,7 +3604,7 @@
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO23" t="n">
         <v>3.75</v>
@@ -3640,19 +3640,19 @@
         <v>3.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3667,10 +3667,10 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
         <v>1.55</v>
@@ -3679,16 +3679,16 @@
         <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
         <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
@@ -3730,7 +3730,7 @@
         <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
         <v>40</v>
@@ -3739,10 +3739,10 @@
         <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.82</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>5.2</v>
@@ -3814,13 +3814,13 @@
         <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>2.2</v>
@@ -3838,13 +3838,13 @@
         <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>75</v>
@@ -3919,7 +3919,7 @@
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
         <v>5.6</v>
@@ -3943,10 +3943,10 @@
         <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
         <v>1.61</v>
@@ -3964,7 +3964,7 @@
         <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="n">
         <v>65</v>
@@ -3988,13 +3988,13 @@
         <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -4009,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
         <v>48</v>
@@ -4048,16 +4048,16 @@
         <v>1.18</v>
       </c>
       <c r="H27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K27" t="n">
         <v>9.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
@@ -4066,40 +4066,40 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T27" t="n">
         <v>2.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
         <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,43 +4108,43 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
         <v>22</v>
       </c>
       <c r="AD27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AO27" t="n">
         <v>430</v>
@@ -4168,256 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.13</v>
       </c>
       <c r="G28" t="n">
-        <v>1.94</v>
+        <v>1.14</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>26</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>12.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>1.93</v>
+        <v>4.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>1.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="W28" t="n">
-        <v>2.06</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="AA28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>85</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>2.34</v>
       </c>
       <c r="AO28" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Bayern Munich</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Union St Gilloise</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H29" t="n">
-        <v>27</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>11</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X29" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -694,7 +694,7 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
         <v>1.7</v>
@@ -709,10 +709,10 @@
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
@@ -943,10 +943,10 @@
         <v>2.76</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -985,7 +985,7 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1111,7 +1111,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
@@ -1120,7 +1120,7 @@
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
@@ -1231,7 +1231,7 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
@@ -1240,13 +1240,13 @@
         <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
         <v>2.22</v>
@@ -1342,79 +1342,79 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.45</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.6</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
         <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>970</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>3.35</v>
@@ -1501,34 +1501,34 @@
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.54</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1618,7 +1618,7 @@
         <v>2.84</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
@@ -1630,7 +1630,7 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1669,10 +1669,10 @@
         <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>65</v>
@@ -1681,13 +1681,13 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
         <v>20</v>
@@ -1699,13 +1699,13 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
         <v>65</v>
@@ -1714,10 +1714,10 @@
         <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1765,7 +1765,7 @@
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1777,7 +1777,7 @@
         <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q10" t="n">
         <v>2.14</v>
@@ -1786,61 +1786,61 @@
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
         <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>50</v>
@@ -1891,7 +1891,7 @@
         <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1912,19 +1912,19 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
         <v>2.26</v>
@@ -1939,55 +1939,55 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
         <v>1.17</v>
@@ -2041,7 +2041,7 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.13</v>
@@ -2053,7 +2053,7 @@
         <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.97</v>
@@ -2062,7 +2062,7 @@
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
         <v>5.7</v>
@@ -2074,10 +2074,10 @@
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2089,7 +2089,7 @@
         <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
         <v>2.12</v>
@@ -2164,10 +2164,10 @@
         <v>2.14</v>
       </c>
       <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,13 +2176,13 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2194,13 +2194,13 @@
         <v>2.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
         <v>1.38</v>
@@ -2221,7 +2221,7 @@
         <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
         <v>38</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.16</v>
@@ -2299,7 +2299,7 @@
         <v>2.18</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
@@ -2311,13 +2311,13 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
@@ -2329,7 +2329,7 @@
         <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
         <v>2.76</v>
@@ -2341,10 +2341,10 @@
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2353,7 +2353,7 @@
         <v>28</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2362,10 +2362,10 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
         <v>14.5</v>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2428,7 +2428,7 @@
         <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>10.5</v>
@@ -2437,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.23</v>
@@ -2473,7 +2473,7 @@
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G16" t="n">
         <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
         <v>5.9</v>
@@ -2575,7 +2575,7 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="n">
         <v>1.17</v>
@@ -2596,7 +2596,7 @@
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T16" t="n">
         <v>2.62</v>
@@ -2605,7 +2605,7 @@
         <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
         <v>1.92</v>
@@ -2623,7 +2623,7 @@
         <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2635,7 +2635,7 @@
         <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
         <v>15.5</v>
@@ -2647,7 +2647,7 @@
         <v>240</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
         <v>48</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
         <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
@@ -2737,13 +2737,13 @@
         <v>1.81</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2866,7 +2866,7 @@
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2878,7 +2878,7 @@
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
         <v>19.5</v>
@@ -2908,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>18.5</v>
@@ -2917,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>34</v>
@@ -2971,13 +2971,13 @@
         <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.26</v>
@@ -2992,7 +2992,7 @@
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q19" t="n">
         <v>1.59</v>
@@ -3001,16 +3001,16 @@
         <v>1.58</v>
       </c>
       <c r="S19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
         <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
         <v>3.05</v>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
         <v>80</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3127,10 +3127,10 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
@@ -3139,16 +3139,16 @@
         <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
         <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3166,10 +3166,10 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
         <v>970</v>
@@ -3235,19 +3235,19 @@
         <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
         <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3256,13 +3256,13 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>1.74</v>
@@ -3271,25 +3271,25 @@
         <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T21" t="n">
         <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>18</v>
@@ -3301,13 +3301,13 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3316,16 +3316,16 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
       </c>
       <c r="H22" t="n">
         <v>4.7</v>
@@ -3379,10 +3379,10 @@
         <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3403,7 +3403,7 @@
         <v>2.06</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3415,13 +3415,13 @@
         <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
         <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
         <v>16</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I23" t="n">
         <v>1.34</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.35</v>
       </c>
       <c r="J23" t="n">
         <v>6.6</v>
@@ -3526,31 +3526,31 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.97</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
         <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="W23" t="n">
         <v>1.11</v>
@@ -3559,16 +3559,16 @@
         <v>46</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
         <v>15.5</v>
@@ -3577,13 +3577,13 @@
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF23" t="n">
         <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -3598,16 +3598,16 @@
         <v>110</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.8</v>
       </c>
-      <c r="G24" t="n">
-        <v>3.85</v>
-      </c>
       <c r="H24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
         <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3667,25 +3667,25 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
         <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
         <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W24" t="n">
         <v>1.35</v>
@@ -3697,13 +3697,13 @@
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA24" t="n">
         <v>25</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>8.800000000000001</v>
@@ -3739,10 +3739,10 @@
         <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
@@ -3802,7 +3802,7 @@
         <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q25" t="n">
         <v>2.12</v>
@@ -3814,16 +3814,16 @@
         <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3832,13 +3832,13 @@
         <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
         <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
@@ -3847,10 +3847,10 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.23</v>
@@ -3931,55 +3931,55 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="R26" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
         <v>70</v>
@@ -4009,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO26" t="n">
         <v>48</v>
@@ -4045,19 +4045,19 @@
         <v>1.17</v>
       </c>
       <c r="G27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" t="n">
         <v>23</v>
       </c>
       <c r="J27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K27" t="n">
         <v>9.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.22</v>
@@ -4066,28 +4066,28 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.12</v>
       </c>
       <c r="P27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R27" t="n">
         <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="U27" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
         <v>1.04</v>
@@ -4096,10 +4096,10 @@
         <v>6.4</v>
       </c>
       <c r="X27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>22</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>42</v>
@@ -4135,16 +4135,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AO27" t="n">
         <v>430</v>
@@ -4183,10 +4183,10 @@
         <v>1.14</v>
       </c>
       <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
         <v>26</v>
-      </c>
-      <c r="I28" t="n">
-        <v>28</v>
       </c>
       <c r="J28" t="n">
         <v>12</v>
@@ -4204,7 +4204,7 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
         <v>4.3</v>
@@ -4213,31 +4213,31 @@
         <v>1.28</v>
       </c>
       <c r="R28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="S28" t="n">
         <v>1.71</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y28" t="n">
         <v>110</v>
       </c>
       <c r="Z28" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,13 +4246,13 @@
         <v>17.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE28" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -4261,28 +4261,28 @@
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="AO28" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -673,10 +673,10 @@
         <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -694,10 +694,10 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -709,34 +709,34 @@
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -745,31 +745,31 @@
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
         <v>23</v>
       </c>
-      <c r="AK2" t="n">
-        <v>25</v>
-      </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.38</v>
@@ -838,10 +838,10 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
@@ -850,64 +850,64 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="n">
         <v>13</v>
       </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG3" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK3" t="n">
         <v>36</v>
       </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>38</v>
-      </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -961,22 +961,22 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>1.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -985,58 +985,58 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>32</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
         <v>8.199999999999999</v>
@@ -1117,13 +1117,13 @@
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>24</v>
@@ -1210,19 +1210,19 @@
         <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
         <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.52</v>
@@ -1240,13 +1240,13 @@
         <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
         <v>2.22</v>
@@ -1255,55 +1255,55 @@
         <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>130</v>
       </c>
       <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AM6" t="n">
         <v>330</v>
@@ -1342,52 +1342,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
         <v>1.64</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>2.32</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V7" t="n">
         <v>1.1</v>
@@ -1396,7 +1396,7 @@
         <v>2.56</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1432,13 +1432,13 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1483,10 +1483,10 @@
         <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1495,34 +1495,34 @@
         <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.23</v>
@@ -1531,31 +1531,31 @@
         <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
         <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1573,10 +1573,10 @@
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
         <v>30</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.48</v>
@@ -1660,13 +1660,13 @@
         <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10.5</v>
@@ -1699,19 +1699,19 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>40</v>
@@ -1750,13 +1750,13 @@
         <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1765,7 +1765,7 @@
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1780,7 +1780,7 @@
         <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1789,70 +1789,70 @@
         <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
         <v>22</v>
       </c>
-      <c r="AE10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>24</v>
       </c>
-      <c r="AI10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>27</v>
-      </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
         <v>2.88</v>
@@ -1891,10 +1891,10 @@
         <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1915,7 +1915,7 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
         <v>1.42</v>
@@ -1927,10 +1927,10 @@
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
         <v>1.53</v>
@@ -1945,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>13.5</v>
@@ -1957,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1969,19 +1969,19 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>1.17</v>
       </c>
       <c r="I12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
         <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.22</v>
@@ -2047,7 +2047,7 @@
         <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.36</v>
@@ -2056,49 +2056,49 @@
         <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="AC12" t="n">
         <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="AL12" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="AN12" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>2.12</v>
@@ -2164,10 +2164,10 @@
         <v>2.14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2182,7 +2182,7 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2191,10 +2191,10 @@
         <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U13" t="n">
         <v>2.58</v>
@@ -2206,7 +2206,7 @@
         <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2233,7 +2233,7 @@
         <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2317,43 +2317,43 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
         <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2362,13 +2362,13 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
@@ -2377,10 +2377,10 @@
         <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2389,10 +2389,10 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
         <v>10.5</v>
@@ -2449,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
         <v>3.05</v>
@@ -2458,7 +2458,7 @@
         <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
         <v>2.08</v>
@@ -2467,13 +2467,13 @@
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2509,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
         <v>12.5</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>2.98</v>
@@ -2578,13 +2578,13 @@
         <v>1.73</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N16" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2596,10 +2596,10 @@
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="U16" t="n">
         <v>1.53</v>
@@ -2608,7 +2608,7 @@
         <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>6.6</v>
@@ -2623,7 +2623,7 @@
         <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.15</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>1.46</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
@@ -2728,7 +2728,7 @@
         <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
         <v>3.95</v>
@@ -2740,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2752,7 +2752,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>55</v>
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -2776,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2791,13 +2791,13 @@
         <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2857,10 +2857,10 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
@@ -2869,70 +2869,70 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
         <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
         <v>19.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="n">
         <v>27</v>
       </c>
-      <c r="AA18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN18" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.43</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.26</v>
@@ -2986,49 +2986,49 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="X19" t="n">
         <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA19" t="n">
         <v>250</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>14.5</v>
@@ -3037,34 +3037,34 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
         <v>120</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3121,85 +3121,85 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="n">
         <v>970</v>
@@ -3235,10 +3235,10 @@
         <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>2.24</v>
@@ -3256,25 +3256,25 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
         <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
         <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
         <v>2.24</v>
@@ -3283,13 +3283,13 @@
         <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
         <v>18</v>
@@ -3298,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3322,19 +3322,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN21" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
         <v>16</v>
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.13</v>
       </c>
       <c r="G22" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>26</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>28</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>12</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.08</v>
       </c>
-      <c r="N22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>4.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>1.27</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>2.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>1.72</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>85</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>2.32</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>9.6</v>
       </c>
       <c r="G23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>1.33</v>
@@ -3517,7 +3517,7 @@
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3541,13 +3541,13 @@
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
         <v>3.9</v>
@@ -3562,7 +3562,7 @@
         <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
         <v>12.5</v>
@@ -3580,7 +3580,7 @@
         <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG23" t="n">
         <v>36</v>
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>360</v>
@@ -3604,10 +3604,10 @@
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>14.5</v>
@@ -3703,10 +3703,10 @@
         <v>25</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>10.5</v>
@@ -3715,13 +3715,13 @@
         <v>18.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH24" t="n">
         <v>15</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
         <v>27</v>
@@ -3733,16 +3733,16 @@
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I25" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.5</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3802,7 +3802,7 @@
         <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" t="n">
         <v>2.12</v>
@@ -3817,13 +3817,13 @@
         <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="G26" t="n">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="K26" t="n">
-        <v>5.7</v>
+        <v>9.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.94</v>
       </c>
-      <c r="S26" t="n">
-        <v>2.04</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>40</v>
       </c>
-      <c r="Y26" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18</v>
-      </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AK26" t="n">
         <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>2.84</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>1.19</v>
+        <v>1.92</v>
       </c>
       <c r="H27" t="n">
-        <v>22</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>9.4</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.88</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.13</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="P28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD28" t="n">
         <v>26</v>
       </c>
-      <c r="J28" t="n">
-        <v>12</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
         <v>12.5</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11</v>
-      </c>
       <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>15</v>
       </c>
-      <c r="AH28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>390</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -697,13 +697,13 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
         <v>3.7</v>
@@ -712,19 +712,19 @@
         <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
         <v>46</v>
@@ -739,10 +739,10 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>500</v>
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
         <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -835,13 +835,13 @@
         <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
@@ -850,10 +850,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -892,13 +892,13 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
         <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -943,7 +943,7 @@
         <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>3.8</v>
@@ -961,22 +961,22 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.56</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -988,7 +988,7 @@
         <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="n">
         <v>1.48</v>
@@ -1081,7 +1081,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1090,7 +1090,7 @@
         <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,10 +1102,10 @@
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1120,40 +1120,40 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
         <v>3.05</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="n">
         <v>360</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
         <v>170</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>32</v>
@@ -1165,16 +1165,16 @@
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO5" t="n">
         <v>220</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN6" t="n">
         <v>32</v>
       </c>
-      <c r="AI6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>38</v>
-      </c>
       <c r="AO6" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
         <v>2.06</v>
@@ -1486,103 +1486,103 @@
         <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P8" t="n">
         <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
         <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="n">
         <v>260</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
         <v>2.7</v>
@@ -1627,7 +1627,7 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.48</v>
@@ -1645,7 +1645,7 @@
         <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1657,7 +1657,7 @@
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.45</v>
@@ -1675,31 +1675,31 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>42</v>
       </c>
       <c r="AF9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
         <v>20</v>
       </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>110</v>
@@ -1708,16 +1708,16 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1756,7 +1756,7 @@
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1780,13 +1780,13 @@
         <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.94</v>
@@ -1795,7 +1795,7 @@
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="n">
         <v>24</v>
@@ -1897,19 +1897,19 @@
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
         <v>2.06</v>
@@ -1936,58 +1936,58 @@
         <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
         <v>25</v>
@@ -2029,13 +2029,13 @@
         <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K12" t="n">
         <v>10.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2044,10 +2044,10 @@
         <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
         <v>1.36</v>
@@ -2056,13 +2056,13 @@
         <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
         <v>6</v>
@@ -2074,13 +2074,13 @@
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AB12" t="n">
         <v>390</v>
@@ -2089,13 +2089,13 @@
         <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AG12" t="n">
         <v>300</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AL12" t="n">
         <v>240</v>
@@ -2119,10 +2119,10 @@
         <v>390</v>
       </c>
       <c r="AN12" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
         <v>2.12</v>
@@ -2164,7 +2164,7 @@
         <v>2.14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2185,7 +2185,7 @@
         <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.6</v>
@@ -2206,7 +2206,7 @@
         <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
         <v>2.3</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,10 +2317,10 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
         <v>1.69</v>
@@ -2329,13 +2329,13 @@
         <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
         <v>1.45</v>
@@ -2344,16 +2344,16 @@
         <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2371,10 +2371,10 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
@@ -2383,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
         <v>19</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G15" t="n">
         <v>1.37</v>
@@ -2431,16 +2431,16 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2449,31 +2449,31 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2482,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="Z15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
         <v>360</v>
@@ -2491,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>36</v>
@@ -2524,7 +2524,7 @@
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO15" t="n">
         <v>100</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P16" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.68</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM16" t="n">
         <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
         <v>3.05</v>
@@ -2710,7 +2710,7 @@
         <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2725,25 +2725,25 @@
         <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
         <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2752,10 +2752,10 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.05</v>
@@ -2860,13 +2860,13 @@
         <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T18" t="n">
         <v>1.67</v>
@@ -2875,22 +2875,22 @@
         <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
         <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2899,16 +2899,16 @@
         <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
         <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
@@ -2920,19 +2920,19 @@
         <v>80</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
         <v>8.199999999999999</v>
@@ -2977,7 +2977,7 @@
         <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>1.26</v>
@@ -3016,58 +3016,58 @@
         <v>3.25</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>38</v>
       </c>
-      <c r="Z19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
       <c r="AE19" t="n">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3130,13 +3130,13 @@
         <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
         <v>1.6</v>
@@ -3145,13 +3145,13 @@
         <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3160,19 +3160,19 @@
         <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
         <v>16.5</v>
@@ -3187,7 +3187,7 @@
         <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3199,10 +3199,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3238,19 +3238,19 @@
         <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
         <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3277,58 +3277,58 @@
         <v>1.67</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
         <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="n">
         <v>330</v>
@@ -3337,7 +3337,7 @@
         <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>1.14</v>
       </c>
       <c r="H22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" t="n">
         <v>12</v>
@@ -3391,28 +3391,28 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.08</v>
       </c>
       <c r="P22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S22" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="T22" t="n">
         <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
         <v>1.03</v>
@@ -3421,13 +3421,13 @@
         <v>8.4</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z22" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3439,10 +3439,10 @@
         <v>29</v>
       </c>
       <c r="AD22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE22" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3460,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AO22" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>9.6</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>1.33</v>
@@ -3517,7 +3517,7 @@
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3544,7 +3544,7 @@
         <v>1.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
@@ -3556,7 +3556,7 @@
         <v>1.11</v>
       </c>
       <c r="X23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
         <v>15</v>
@@ -3586,10 +3586,10 @@
         <v>36</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>360</v>
@@ -3604,10 +3604,10 @@
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>1.99</v>
@@ -3682,7 +3682,7 @@
         <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -3712,7 +3712,7 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
         <v>32</v>
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ24" t="n">
         <v>75</v>
@@ -3739,10 +3739,10 @@
         <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
@@ -3817,13 +3817,13 @@
         <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3844,16 +3844,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -3871,10 +3871,10 @@
         <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>95</v>
@@ -3913,13 +3913,13 @@
         <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>9.6</v>
@@ -3940,19 +3940,19 @@
         <v>3.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
         <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
@@ -3961,13 +3961,13 @@
         <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y26" t="n">
         <v>85</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -4006,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
         <v>2.84</v>
@@ -4051,7 +4051,7 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4075,7 +4075,7 @@
         <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
         <v>1.34</v>
@@ -4096,10 +4096,10 @@
         <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
         <v>34</v>
@@ -4135,16 +4135,16 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
         <v>70</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G28" t="n">
         <v>1.49</v>
@@ -4189,7 +4189,7 @@
         <v>6.8</v>
       </c>
       <c r="J28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K28" t="n">
         <v>5.7</v>
@@ -4219,7 +4219,7 @@
         <v>2.02</v>
       </c>
       <c r="T28" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U28" t="n">
         <v>2.6</v>
@@ -4249,7 +4249,7 @@
         <v>13.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
@@ -4270,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -670,22 +670,22 @@
         <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,13 +694,13 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
         <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
@@ -715,10 +715,10 @@
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
@@ -727,7 +727,7 @@
         <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
@@ -742,10 +742,10 @@
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.58</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>3.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" t="n">
         <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>25</v>
       </c>
-      <c r="AA4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>38</v>
-      </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
         <v>1.48</v>
@@ -1090,13 +1090,13 @@
         <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
@@ -1105,16 +1105,16 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.9</v>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="n">
         <v>360</v>
@@ -1174,7 +1174,7 @@
         <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO5" t="n">
         <v>220</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="N6" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
         <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1432,10 +1432,10 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1483,7 +1483,7 @@
         <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
         <v>5.5</v>
@@ -1492,13 +1492,13 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
         <v>2.48</v>
@@ -1507,7 +1507,7 @@
         <v>1.59</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" t="n">
         <v>2.78</v>
@@ -1582,7 +1582,7 @@
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1630,13 +1630,13 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1645,13 +1645,13 @@
         <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
         <v>1.89</v>
@@ -1789,7 +1789,7 @@
         <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
@@ -1807,7 +1807,7 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
@@ -1822,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="AJ10" t="n">
         <v>24</v>
@@ -1888,7 +1888,7 @@
         <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
         <v>2.84</v>
@@ -1900,7 +1900,7 @@
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
         <v>1.81</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
         <v>24</v>
@@ -1969,13 +1969,13 @@
         <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
         <v>46</v>
@@ -1987,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J12" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,7 +2044,7 @@
         <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
         <v>3.25</v>
@@ -2056,46 +2056,46 @@
         <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>390</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AG12" t="n">
         <v>300</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AL12" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AM12" t="n">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.65</v>
       </c>
       <c r="H13" t="n">
         <v>2.12</v>
@@ -2164,7 +2164,7 @@
         <v>2.14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>3.25</v>
       </c>
       <c r="H14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.32</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
@@ -2311,22 +2311,22 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
         <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
         <v>1.52</v>
@@ -2338,10 +2338,10 @@
         <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
         <v>15.5</v>
@@ -2353,10 +2353,10 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
@@ -2371,7 +2371,7 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>25</v>
@@ -2380,13 +2380,13 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN14" t="n">
         <v>19</v>
@@ -2446,7 +2446,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2455,10 +2455,10 @@
         <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
         <v>2.1</v>
@@ -2467,7 +2467,7 @@
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
         <v>1.1</v>
@@ -2527,7 +2527,7 @@
         <v>4.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
         <v>2.94</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
         <v>1.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
         <v>1.05</v>
@@ -2608,7 +2608,7 @@
         <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>7.2</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
         <v>2.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I17" t="n">
         <v>3.05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>3.45</v>
@@ -2734,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
@@ -2830,7 +2830,7 @@
         <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
         <v>3.05</v>
@@ -2845,19 +2845,19 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
         <v>1.76</v>
@@ -2866,10 +2866,10 @@
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>2.24</v>
@@ -2890,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2899,10 +2899,10 @@
         <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="n">
         <v>16.5</v>
@@ -2911,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
         <v>160</v>
@@ -2926,13 +2926,13 @@
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3016,7 +3016,7 @@
         <v>3.25</v>
       </c>
       <c r="X19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
@@ -3028,25 +3028,25 @@
         <v>390</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
         <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
         <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>130</v>
@@ -3064,7 +3064,7 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO19" t="n">
         <v>150</v>
@@ -3130,7 +3130,7 @@
         <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
@@ -3151,10 +3151,10 @@
         <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3166,7 +3166,7 @@
         <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
         <v>27</v>
@@ -3184,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
         <v>900</v>
@@ -3265,7 +3265,7 @@
         <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
         <v>1.43</v>
@@ -3322,7 +3322,7 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AK21" t="n">
         <v>100</v>
@@ -3373,10 +3373,10 @@
         <v>1.14</v>
       </c>
       <c r="H22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I22" t="n">
         <v>28</v>
-      </c>
-      <c r="I22" t="n">
-        <v>29</v>
       </c>
       <c r="J22" t="n">
         <v>12</v>
@@ -3385,31 +3385,31 @@
         <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.08</v>
       </c>
       <c r="P22" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R22" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="S22" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
         <v>1.9</v>
@@ -3418,37 +3418,37 @@
         <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
         <v>120</v>
       </c>
       <c r="Z22" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
         <v>46</v>
@@ -3457,22 +3457,22 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H23" t="n">
         <v>1.33</v>
@@ -3517,7 +3517,7 @@
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3526,19 +3526,19 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="n">
         <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S23" t="n">
         <v>1.96</v>
@@ -3550,7 +3550,7 @@
         <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="W23" t="n">
         <v>1.11</v>
@@ -3559,7 +3559,7 @@
         <v>44</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>11.5</v>
@@ -3607,7 +3607,7 @@
         <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="24">
@@ -3661,7 +3661,7 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3676,10 +3676,10 @@
         <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U24" t="n">
         <v>2.58</v>
@@ -3712,7 +3712,7 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>32</v>
@@ -3808,7 +3808,7 @@
         <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
         <v>3.9</v>
@@ -3832,7 +3832,7 @@
         <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="n">
         <v>140</v>
@@ -3847,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3856,7 +3856,7 @@
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>85</v>
@@ -3937,16 +3937,16 @@
         <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="n">
         <v>1.38</v>
       </c>
       <c r="R26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T26" t="n">
         <v>2.06</v>
@@ -3961,25 +3961,25 @@
         <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="n">
         <v>85</v>
       </c>
       <c r="Z26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
         <v>22</v>
       </c>
       <c r="AD26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3991,22 +3991,22 @@
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK26" t="n">
         <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
         <v>2.84</v>
@@ -4069,7 +4069,7 @@
         <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.91</v>
@@ -4099,7 +4099,7 @@
         <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
         <v>34</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I28" t="n">
         <v>6.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.8</v>
       </c>
       <c r="J28" t="n">
         <v>5.5</v>
@@ -4201,7 +4201,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O28" t="n">
         <v>1.13</v>
@@ -4213,10 +4213,10 @@
         <v>1.41</v>
       </c>
       <c r="R28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T28" t="n">
         <v>1.59</v>
@@ -4231,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="n">
         <v>40</v>
@@ -4240,7 +4240,7 @@
         <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
         <v>15.5</v>
@@ -4252,7 +4252,7 @@
         <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
@@ -4264,10 +4264,10 @@
         <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
@@ -4279,7 +4279,7 @@
         <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
         <v>48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
@@ -727,37 +727,37 @@
         <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
         <v>2.32</v>
@@ -817,34 +817,34 @@
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -853,37 +853,37 @@
         <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
         <v>18.5</v>
@@ -895,19 +895,19 @@
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -979,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
@@ -997,10 +997,10 @@
         <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AB4" t="n">
         <v>8</v>
@@ -1012,10 +1012,10 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
         <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
@@ -1132,52 +1132,52 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.19</v>
       </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
         <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
         <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
@@ -1435,7 +1435,7 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
         <v>1.59</v>
@@ -1510,31 +1510,31 @@
         <v>1.51</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
         <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
@@ -1543,7 +1543,7 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
@@ -1555,7 +1555,7 @@
         <v>260</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1570,7 +1570,7 @@
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>180</v>
@@ -1579,7 +1579,7 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,76 +1612,76 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
         <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
         <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
@@ -1690,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>60</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1759,52 +1759,52 @@
         <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>95</v>
@@ -1816,13 +1816,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
@@ -1843,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
@@ -1852,7 +1852,7 @@
         <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,43 +1882,43 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.66</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.58</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>3.05</v>
@@ -1927,67 +1927,67 @@
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>48</v>
       </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AK11" t="n">
         <v>32</v>
       </c>
-      <c r="AF11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
         <v>44</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2032,10 +2032,10 @@
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2044,31 +2044,31 @@
         <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S12" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2077,16 +2077,16 @@
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
         <v>390</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AD12" t="n">
         <v>22</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AG12" t="n">
         <v>300</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AL12" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM12" t="n">
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.95</v>
@@ -2176,52 +2176,52 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB13" t="n">
         <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
@@ -2236,7 +2236,7 @@
         <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2245,16 +2245,16 @@
         <v>65</v>
       </c>
       <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2296,13 +2296,13 @@
         <v>2.28</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2314,37 +2314,37 @@
         <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
         <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
         <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>17.5</v>
@@ -2353,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
@@ -2368,25 +2368,25 @@
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
         <v>19</v>
@@ -2422,76 +2422,76 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
         <v>44</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="n">
         <v>360</v>
       </c>
       <c r="AB15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>14</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>36</v>
@@ -2506,10 +2506,10 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
         <v>12.5</v>
@@ -2521,13 +2521,13 @@
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2557,46 +2557,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="G16" t="n">
         <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="N16" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="T16" t="n">
         <v>1.05</v>
@@ -2605,13 +2605,13 @@
         <v>1.41</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
         <v>1.96</v>
       </c>
       <c r="X16" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2692,61 +2692,61 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H17" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
         <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.54</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2761,7 +2761,7 @@
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
@@ -2794,10 +2794,10 @@
         <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
         <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
         <v>1.66</v>
@@ -2875,7 +2875,7 @@
         <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
         <v>1.71</v>
@@ -2914,7 +2914,7 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
         <v>80</v>
@@ -2926,7 +2926,7 @@
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
         <v>8.199999999999999</v>
@@ -2977,16 +2977,16 @@
         <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -2995,16 +2995,16 @@
         <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
         <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
         <v>2.02</v>
@@ -3013,61 +3013,61 @@
         <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="n">
         <v>390</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>130</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -3103,40 +3103,40 @@
         <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
         <v>1.6</v>
@@ -3151,10 +3151,10 @@
         <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3163,7 +3163,7 @@
         <v>440</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
@@ -3190,7 +3190,7 @@
         <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>70</v>
@@ -3202,7 +3202,7 @@
         <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3232,46 +3232,46 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
         <v>1.67</v>
@@ -3280,64 +3280,64 @@
         <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA21" t="n">
         <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>46</v>
       </c>
       <c r="AF21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AL21" t="n">
         <v>160</v>
       </c>
       <c r="AM21" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>210</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3373,43 +3373,43 @@
         <v>1.14</v>
       </c>
       <c r="H22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" t="n">
         <v>28</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K22" t="n">
         <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P22" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R22" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
         <v>1.9</v>
@@ -3418,49 +3418,49 @@
         <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z22" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE22" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="AO22" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="J23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
         <v>6.8</v>
@@ -3526,88 +3526,88 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC23" t="n">
         <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
         <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
         <v>360</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
       </c>
       <c r="H24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.99</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3664,25 +3664,25 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>2.58</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -3694,16 +3694,16 @@
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>14.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
         <v>9.199999999999999</v>
@@ -3739,10 +3739,10 @@
         <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.83</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
@@ -3784,91 +3784,91 @@
         <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
         <v>70</v>
       </c>
       <c r="AF25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>10</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK25" t="n">
         <v>19</v>
       </c>
-      <c r="AK25" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="n">
         <v>130</v>
@@ -3877,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -3919,97 +3919,97 @@
         <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="Z26" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="AO26" t="n">
         <v>430</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -4066,7 +4066,7 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
@@ -4078,64 +4078,64 @@
         <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S27" t="n">
         <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC27" t="n">
-        <v>8</v>
-      </c>
       <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>21</v>
-      </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>36</v>
@@ -4144,10 +4144,10 @@
         <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H28" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="I28" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="J28" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K28" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L28" t="n">
         <v>1.23</v>
@@ -4201,88 +4201,88 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S28" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T28" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X28" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO28" t="n">
         <v>65</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,85 +667,85 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -757,19 +757,19 @@
         <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>600</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
         <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
         <v>3.25</v>
@@ -832,82 +832,82 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
         <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK3" t="n">
         <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -961,16 +961,16 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.28</v>
@@ -982,37 +982,37 @@
         <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
         <v>11.5</v>
@@ -1033,16 +1033,16 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1105,16 +1105,16 @@
         <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.92</v>
@@ -1123,22 +1123,22 @@
         <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
         <v>190</v>
       </c>
       <c r="AA5" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1150,34 +1150,34 @@
         <v>290</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
         <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
         <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>46</v>
@@ -1273,7 +1273,7 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
@@ -1285,7 +1285,7 @@
         <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1342,49 +1342,49 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="O7" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
         <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="U7" t="n">
         <v>1.4</v>
@@ -1393,16 +1393,16 @@
         <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
@@ -1441,7 +1441,7 @@
         <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AN7" t="n">
         <v>970</v>
@@ -1480,13 +1480,13 @@
         <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1498,46 +1498,46 @@
         <v>1.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
@@ -1549,7 +1549,7 @@
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>260</v>
@@ -1561,13 +1561,13 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
         <v>65</v>
@@ -1579,7 +1579,7 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
@@ -1630,34 +1630,34 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.46</v>
@@ -1672,40 +1672,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
         <v>150</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1756,7 +1756,7 @@
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1765,22 +1765,22 @@
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
@@ -1816,7 +1816,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>19.5</v>
@@ -1837,10 +1837,10 @@
         <v>380</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
         <v>290</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1906,61 +1906,61 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1972,22 +1972,22 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -2017,52 +2017,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="n">
         <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
         <v>5.3</v>
@@ -2074,34 +2074,34 @@
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>390</v>
       </c>
       <c r="AC12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AL12" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I13" t="n">
         <v>2.2</v>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2182,7 +2182,7 @@
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q13" t="n">
         <v>1.63</v>
@@ -2194,19 +2194,19 @@
         <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2215,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="n">
         <v>18.5</v>
@@ -2230,31 +2230,31 @@
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
         <v>2.32</v>
@@ -2305,13 +2305,13 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2320,28 +2320,28 @@
         <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V14" t="n">
         <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2353,13 +2353,13 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
         <v>20</v>
@@ -2422,85 +2422,85 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.38</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.39</v>
-      </c>
       <c r="H15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.8</v>
       </c>
-      <c r="S15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
         <v>44</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
         <v>120</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2509,10 +2509,10 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>13.5</v>
@@ -2521,13 +2521,13 @@
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
       </c>
       <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.75</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.78</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R16" t="n">
         <v>1.12</v>
       </c>
       <c r="S16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8</v>
       </c>
-      <c r="T16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>42</v>
-      </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AM16" t="n">
         <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
         <v>21</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="n">
         <v>120</v>
       </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AM17" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN17" t="n">
         <v>44</v>
       </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>36</v>
-      </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G18" t="n">
         <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
         <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
@@ -2890,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2905,7 +2905,7 @@
         <v>95</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2914,10 +2914,10 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
         <v>25</v>
@@ -2926,10 +2926,10 @@
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
         <v>48</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J19" t="n">
         <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2995,16 +2995,16 @@
         <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
         <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
         <v>2.02</v>
@@ -3013,19 +3013,19 @@
         <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
         <v>85</v>
       </c>
       <c r="AA19" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AB19" t="n">
         <v>10.5</v>
@@ -3037,10 +3037,10 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
         <v>12.5</v>
@@ -3097,49 +3097,49 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.36</v>
@@ -3148,25 +3148,25 @@
         <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="n">
         <v>440</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
         <v>27</v>
@@ -3184,25 +3184,25 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3235,28 +3235,28 @@
         <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3271,7 +3271,7 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="T21" t="n">
         <v>1.67</v>
@@ -3280,10 +3280,10 @@
         <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -3301,7 +3301,7 @@
         <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3316,10 +3316,10 @@
         <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
         <v>900</v>
@@ -3331,7 +3331,7 @@
         <v>160</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN21" t="n">
         <v>210</v>
@@ -3373,13 +3373,13 @@
         <v>1.14</v>
       </c>
       <c r="H22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" t="n">
         <v>28</v>
       </c>
       <c r="J22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K22" t="n">
         <v>12.5</v>
@@ -3400,49 +3400,49 @@
         <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V22" t="n">
         <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="n">
         <v>110</v>
       </c>
       <c r="Z22" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
         <v>28</v>
       </c>
       <c r="AD22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE22" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
         <v>10.5</v>
@@ -3451,25 +3451,25 @@
         <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AK22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H23" t="n">
         <v>1.35</v>
@@ -3517,7 +3517,7 @@
         <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -3526,7 +3526,7 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
@@ -3541,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T23" t="n">
         <v>1.66</v>
@@ -3553,10 +3553,10 @@
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y23" t="n">
         <v>15</v>
@@ -3568,22 +3568,22 @@
         <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
         <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -3592,10 +3592,10 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AK23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL23" t="n">
         <v>75</v>
@@ -3604,7 +3604,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="n">
         <v>3.7</v>
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>5.5</v>
@@ -3670,16 +3670,16 @@
         <v>2.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
         <v>2.6</v>
@@ -3691,10 +3691,10 @@
         <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>14.5</v>
@@ -3703,16 +3703,16 @@
         <v>24</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
         <v>32</v>
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="n">
         <v>75</v>
@@ -3742,7 +3742,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3796,37 +3796,37 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>16</v>
@@ -3835,31 +3835,31 @@
         <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>18.5</v>
@@ -3874,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
         <v>90</v>
@@ -3907,49 +3907,49 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.17</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.18</v>
-      </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" t="n">
         <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P26" t="n">
         <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
         <v>1.9</v>
@@ -3958,10 +3958,10 @@
         <v>1.04</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y26" t="n">
         <v>100</v>
@@ -3979,7 +3979,7 @@
         <v>24</v>
       </c>
       <c r="AD26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3988,16 +3988,16 @@
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4006,10 +4006,10 @@
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AO26" t="n">
         <v>430</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.82</v>
       </c>
       <c r="H27" t="n">
         <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -4066,13 +4066,13 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q27" t="n">
         <v>2.06</v>
@@ -4081,10 +4081,10 @@
         <v>1.35</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -4093,16 +4093,16 @@
         <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
@@ -4120,10 +4120,10 @@
         <v>75</v>
       </c>
       <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10</v>
       </c>
       <c r="AH27" t="n">
         <v>21</v>
@@ -4135,10 +4135,10 @@
         <v>18.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H28" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -4213,25 +4213,25 @@
         <v>1.39</v>
       </c>
       <c r="R28" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="n">
         <v>42</v>
@@ -4240,31 +4240,31 @@
         <v>80</v>
       </c>
       <c r="AA28" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
         <v>14</v>
@@ -4273,13 +4273,13 @@
         <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO28" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
         <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
         <v>600</v>
@@ -802,103 +802,103 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>80</v>
       </c>
-      <c r="AF3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>9.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>190</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.9</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>290</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>790</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="H6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.2</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.4</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>1.07</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="P7" t="n">
         <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
@@ -1384,46 +1384,46 @@
         <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.96</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1432,16 +1432,16 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="AN7" t="n">
         <v>970</v>
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
         <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>1.07</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>180</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
         <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ9" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1789,67 +1789,67 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>380</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.54</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
@@ -1906,76 +1906,76 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>900</v>
       </c>
-      <c r="AB11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>55</v>
-      </c>
       <c r="AK11" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
         <v>1.22</v>
       </c>
       <c r="I12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R12" t="n">
         <v>1.84</v>
@@ -2059,49 +2059,49 @@
         <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2191,7 +2191,7 @@
         <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T13" t="n">
         <v>1.56</v>
@@ -2200,19 +2200,19 @@
         <v>2.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>28</v>
@@ -2221,13 +2221,13 @@
         <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2251,10 +2251,10 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.15</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2332,19 +2332,19 @@
         <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17.5</v>
@@ -2353,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
@@ -2362,13 +2362,13 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2380,19 +2380,19 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
         <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
@@ -2425,109 +2425,109 @@
         <v>1.36</v>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I15" t="n">
         <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
         <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,94 +2557,94 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N16" t="n">
         <v>2.22</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC16" t="n">
         <v>7.6</v>
       </c>
-      <c r="T16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
         <v>46</v>
       </c>
       <c r="AI16" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
@@ -2662,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="AO16" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="G17" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
         <v>2.38</v>
@@ -2731,73 +2731,73 @@
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
         <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
         <v>1.7</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="I19" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2986,34 +2986,34 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
         <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
@@ -3022,13 +3022,13 @@
         <v>44</v>
       </c>
       <c r="Z19" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA19" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>12.5</v>
@@ -3043,7 +3043,7 @@
         <v>9.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3052,10 +3052,10 @@
         <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3064,10 +3064,10 @@
         <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3097,85 +3097,85 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
       </c>
       <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.05</v>
       </c>
-      <c r="N20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.36</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>17</v>
       </c>
-      <c r="Z20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>27</v>
-      </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3184,19 +3184,19 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>55</v>
@@ -3238,10 +3238,10 @@
         <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.9</v>
@@ -3250,94 +3250,94 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
         <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC21" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AJ21" t="n">
         <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G22" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H22" t="n">
         <v>26</v>
       </c>
       <c r="I22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>12</v>
       </c>
-      <c r="K22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3400,13 +3400,13 @@
         <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T22" t="n">
         <v>2.08</v>
@@ -3418,13 +3418,13 @@
         <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="X22" t="n">
         <v>70</v>
       </c>
       <c r="Y22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,31 +3433,31 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
         <v>28</v>
       </c>
       <c r="AD22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>9.4</v>
@@ -3526,28 +3526,28 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
         <v>3.75</v>
@@ -3556,7 +3556,7 @@
         <v>1.11</v>
       </c>
       <c r="X23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="n">
         <v>15</v>
@@ -3592,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK23" t="n">
         <v>100</v>
@@ -3601,10 +3601,10 @@
         <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>3.7</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
         <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3667,7 +3667,7 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q24" t="n">
         <v>1.64</v>
@@ -3676,22 +3676,22 @@
         <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T24" t="n">
         <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
         <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
@@ -3700,13 +3700,13 @@
         <v>14.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>10</v>
@@ -3736,10 +3736,10 @@
         <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
         <v>9.6</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3796,7 +3796,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
@@ -3811,22 +3811,22 @@
         <v>1.34</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
         <v>1.97</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
         <v>16</v>
@@ -3835,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
         <v>8</v>
@@ -3874,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>90</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
         <v>10</v>
@@ -3925,34 +3925,34 @@
         <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R26" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.04</v>
@@ -3961,13 +3961,13 @@
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3979,37 +3979,37 @@
         <v>24</v>
       </c>
       <c r="AD26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AI26" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="AO26" t="n">
         <v>430</v>
@@ -4051,7 +4051,7 @@
         <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
         <v>3.9</v>
@@ -4066,13 +4066,13 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
         <v>2.06</v>
@@ -4081,13 +4081,13 @@
         <v>1.35</v>
       </c>
       <c r="S27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
         <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V27" t="n">
         <v>1.22</v>
@@ -4102,10 +4102,10 @@
         <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
         <v>8</v>
@@ -4114,13 +4114,13 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27" t="n">
         <v>9.800000000000001</v>
@@ -4129,7 +4129,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
         <v>18.5</v>
@@ -4141,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
         <v>12.5</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.4</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.41</v>
-      </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -4195,7 +4195,7 @@
         <v>6.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -4210,13 +4210,13 @@
         <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S28" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T28" t="n">
         <v>1.64</v>
@@ -4228,34 +4228,34 @@
         <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X28" t="n">
         <v>40</v>
       </c>
       <c r="Y28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
         <v>14.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
@@ -4267,22 +4267,22 @@
         <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO28" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.12</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.16</v>
-      </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.49</v>
@@ -691,88 +691,88 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
         <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
         <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>9.4</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
         <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO4" t="n">
         <v>85</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.86</v>
@@ -1111,73 +1111,73 @@
         <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>290</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>790</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
@@ -1249,58 +1249,58 @@
         <v>7.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.07</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
         <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>230</v>
@@ -1309,7 +1309,7 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
         <v>1.66</v>
       </c>
       <c r="P7" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>4.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1435,7 +1435,7 @@
         <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1444,7 +1444,7 @@
         <v>790</v>
       </c>
       <c r="AN7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O8" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.07</v>
+        <v>2.36</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>7.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO8" t="n">
         <v>180</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF9" t="n">
         <v>15</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -1774,82 +1774,82 @@
         <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>380</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
         <v>2.54</v>
@@ -1897,7 +1897,7 @@
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
@@ -1906,88 +1906,88 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,88 +2017,88 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="I12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
         <v>1.07</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>390</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
@@ -2107,22 +2107,22 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.22</v>
@@ -2164,10 +2164,10 @@
         <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2179,22 +2179,22 @@
         <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
         <v>2.68</v>
@@ -2206,7 +2206,7 @@
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2218,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2230,16 +2230,16 @@
         <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2248,16 +2248,16 @@
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2311,7 +2311,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2320,7 +2320,7 @@
         <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>1.66</v>
@@ -2329,22 +2329,22 @@
         <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>17.5</v>
@@ -2353,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
@@ -2362,13 +2362,13 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2380,16 +2380,16 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>11.5</v>
@@ -2428,10 +2428,10 @@
         <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
         <v>5.8</v>
@@ -2458,40 +2458,40 @@
         <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
         <v>3.7</v>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>9.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
@@ -2515,19 +2515,19 @@
         <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2560,37 +2560,37 @@
         <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
       </c>
       <c r="L16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.75</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.78</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="R16" t="n">
         <v>1.13</v>
@@ -2599,70 +2599,70 @@
         <v>8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="n">
         <v>1.22</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y16" t="n">
         <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
         <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>2.98</v>
@@ -2704,10 +2704,10 @@
         <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.53</v>
@@ -2719,13 +2719,13 @@
         <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2734,7 +2734,7 @@
         <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2743,61 +2743,61 @@
         <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.43</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>60</v>
       </c>
-      <c r="AI18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>970</v>
-      </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H19" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
@@ -3103,13 +3103,13 @@
         <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
         <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
         <v>4.1</v>
@@ -3124,25 +3124,25 @@
         <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
         <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
         <v>1.32</v>
@@ -3151,10 +3151,10 @@
         <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>34</v>
@@ -3163,16 +3163,16 @@
         <v>80</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -3181,13 +3181,13 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
         <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
@@ -3199,7 +3199,7 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>32</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>2.1</v>
@@ -3250,100 +3250,100 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
         <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC21" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
         <v>60</v>
       </c>
-      <c r="AI21" t="n">
-        <v>970</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.14</v>
+        <v>3.15</v>
       </c>
       <c r="G22" t="n">
-        <v>1.15</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>26</v>
+        <v>2.24</v>
       </c>
       <c r="I22" t="n">
-        <v>27</v>
+        <v>2.36</v>
       </c>
       <c r="J22" t="n">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>7.8</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
         <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO22" t="n">
         <v>13</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.199999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="G23" t="n">
-        <v>9.4</v>
+        <v>1.15</v>
       </c>
       <c r="H23" t="n">
-        <v>1.35</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>1.36</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>2.4</v>
       </c>
-      <c r="V23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X23" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN23" t="n">
+      <c r="AO23" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="I24" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="S24" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="W24" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG24" t="n">
         <v>32</v>
       </c>
-      <c r="AG24" t="n">
-        <v>16</v>
-      </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ24" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM24" t="n">
         <v>75</v>
       </c>
-      <c r="AK24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>55</v>
-      </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.6</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>2.02</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>2.04</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="T25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.97</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG25" t="n">
         <v>16</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
         <v>38</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
-        <v>90</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>1.17</v>
+        <v>1.82</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>10.5</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>2.24</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>1.79</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>2.22</v>
       </c>
       <c r="X26" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AK26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN26" t="n">
         <v>12.5</v>
       </c>
-      <c r="AL26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AO26" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.79</v>
+        <v>1.16</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>23</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>24</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>4.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.35</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>2.24</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="Y27" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
         <v>17</v>
       </c>
-      <c r="Z27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8</v>
-      </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>2.46</v>
       </c>
       <c r="AO27" t="n">
-        <v>90</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,256 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>PSV</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>1.39</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>8.4</v>
       </c>
-      <c r="I28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>6.2</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>1.23</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>1.02</v>
       </c>
-      <c r="N28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="N29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.12</v>
       </c>
-      <c r="P28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="W29" t="n">
         <v>3.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X29" t="n">
         <v>40</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y29" t="n">
         <v>44</v>
       </c>
-      <c r="Z28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="Z29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB29" t="n">
         <v>15</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC29" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AD29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF29" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG29" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH29" t="n">
         <v>20</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI29" t="n">
         <v>70</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AJ29" t="n">
         <v>13</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK29" t="n">
         <v>12</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL29" t="n">
         <v>25</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO29" t="n">
         <v>75</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4.3</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.15</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.89</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>85</v>
       </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.07</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.09</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>790</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>880</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
         <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>2.44</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.87</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W5" t="n">
-        <v>2.7</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
         <v>15</v>
       </c>
-      <c r="AK5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>1.15</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>1.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>55</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.87</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>40</v>
       </c>
-      <c r="AA6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>500</v>
-      </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>55</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>150</v>
       </c>
       <c r="L7" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>4.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.96</v>
+        <v>1.26</v>
       </c>
       <c r="R7" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="S7" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.76</v>
+        <v>50</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,31 +1420,31 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>3.8</v>
       </c>
       <c r="AK7" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,82 +1477,82 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.04</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.08</v>
-      </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="P8" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
         <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
         <v>10.5</v>
@@ -1561,28 +1561,28 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -1612,70 +1612,70 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
         <v>8.800000000000001</v>
@@ -1684,40 +1684,40 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,100 +1747,100 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.94</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>14</v>
-      </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
         <v>120</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
         <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.48</v>
@@ -1927,28 +1927,28 @@
         <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
@@ -1957,10 +1957,10 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1969,25 +1969,25 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="G12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
         <v>1.23</v>
@@ -2029,40 +2029,40 @@
         <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="S12" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="T12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.87</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
@@ -2071,34 +2071,34 @@
         <v>1.07</v>
       </c>
       <c r="X12" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
         <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
@@ -2107,22 +2107,22 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -2152,52 +2152,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
         <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V13" t="n">
         <v>1.81</v>
@@ -2206,10 +2206,10 @@
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>16.5</v>
@@ -2218,13 +2218,13 @@
         <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>19.5</v>
@@ -2242,10 +2242,10 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>36</v>
@@ -2254,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>11.5</v>
@@ -2293,10 +2293,10 @@
         <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2305,7 +2305,7 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,25 +2317,25 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W14" t="n">
         <v>1.45</v>
@@ -2344,13 +2344,13 @@
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
         <v>18.5</v>
@@ -2365,7 +2365,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2380,7 +2380,7 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +2434,7 @@
         <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K15" t="n">
         <v>6.2</v>
@@ -2452,22 +2452,22 @@
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>1.1</v>
@@ -2506,10 +2506,10 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
         <v>11.5</v>
@@ -2518,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2527,7 +2527,7 @@
         <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="M16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="U16" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
         <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="AN16" t="n">
         <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.53</v>
@@ -2716,19 +2716,19 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
         <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
         <v>4.7</v>
@@ -2743,61 +2743,61 @@
         <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G18" t="n">
         <v>2.46</v>
@@ -2836,10 +2836,10 @@
         <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.85</v>
@@ -2872,40 +2872,40 @@
         <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
         <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AB18" t="n">
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2914,13 +2914,13 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
@@ -2929,10 +2929,10 @@
         <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -2986,7 +2986,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.18</v>
@@ -2998,49 +2998,49 @@
         <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>2.4</v>
       </c>
       <c r="T19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.92</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="n">
         <v>170</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3049,7 +3049,7 @@
         <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3061,13 +3061,13 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -3097,76 +3097,76 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.95</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.63</v>
       </c>
-      <c r="S20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
         <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>17</v>
@@ -3175,16 +3175,16 @@
         <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>15.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
         <v>23</v>
@@ -3199,10 +3199,10 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3256,85 +3256,85 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
         <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AB21" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>230</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>11.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I22" t="n">
         <v>2.36</v>
@@ -3382,10 +3382,10 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3397,28 +3397,28 @@
         <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="V22" t="n">
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -3442,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
         <v>26</v>
@@ -3460,7 +3460,7 @@
         <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.14</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.15</v>
-      </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>1.19</v>
@@ -3538,31 +3538,31 @@
         <v>1.29</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="X23" t="n">
         <v>70</v>
       </c>
       <c r="Y23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z23" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,13 +3571,13 @@
         <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3592,19 +3592,19 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.35</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.36</v>
-      </c>
       <c r="J24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.22</v>
@@ -3661,22 +3661,22 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.12</v>
       </c>
       <c r="P24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="T24" t="n">
         <v>1.68</v>
@@ -3685,16 +3685,16 @@
         <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="W24" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X24" t="n">
         <v>46</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
         <v>11.5</v>
@@ -3715,7 +3715,7 @@
         <v>12.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG24" t="n">
         <v>32</v>
@@ -3727,22 +3727,22 @@
         <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AK24" t="n">
         <v>95</v>
       </c>
       <c r="AL24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G25" t="n">
         <v>3.85</v>
       </c>
-      <c r="G25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3802,40 +3802,40 @@
         <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S25" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U25" t="n">
         <v>2.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
         <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
         <v>19.5</v>
@@ -3853,10 +3853,10 @@
         <v>32</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI25" t="n">
         <v>25</v>
@@ -3865,16 +3865,16 @@
         <v>75</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>9.800000000000001</v>
@@ -3910,7 +3910,7 @@
         <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
         <v>5.3</v>
@@ -3925,22 +3925,22 @@
         <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>1.34</v>
@@ -3949,7 +3949,7 @@
         <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
         <v>1.97</v>
@@ -3958,28 +3958,28 @@
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
         <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB26" t="n">
         <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>75</v>
@@ -3988,16 +3988,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -4042,28 +4042,28 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.16</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.17</v>
       </c>
       <c r="H27" t="n">
         <v>23</v>
       </c>
       <c r="I27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
         <v>1.19</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
         <v>10.5</v>
@@ -4072,34 +4072,34 @@
         <v>1.1</v>
       </c>
       <c r="P27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q27" t="n">
         <v>1.3</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
         <v>1.04</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z27" t="n">
         <v>280</v>
@@ -4114,10 +4114,10 @@
         <v>26</v>
       </c>
       <c r="AD27" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE27" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AF27" t="n">
         <v>11</v>
@@ -4126,25 +4126,25 @@
         <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
         <v>190</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AO27" t="n">
         <v>430</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G28" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
         <v>3.9</v>
@@ -4195,40 +4195,40 @@
         <v>3.95</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q28" t="n">
         <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.97</v>
       </c>
-      <c r="U28" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
         <v>13.5</v>
@@ -4243,46 +4243,46 @@
         <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK28" t="n">
         <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I29" t="n">
         <v>8.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
@@ -4339,7 +4339,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P29" t="n">
         <v>3.4</v>
@@ -4354,40 +4354,40 @@
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X29" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="n">
         <v>220</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
         <v>14.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="n">
         <v>11.5</v>
@@ -4396,28 +4396,28 @@
         <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
         <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
       </c>
       <c r="AL29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM29" t="n">
         <v>70</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.06</v>
+        <v>3.35</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>1.41</v>
       </c>
       <c r="T2" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>3.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>6.4</v>
       </c>
       <c r="AI2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>5.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>370</v>
+        <v>9.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:31:01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.01</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -865,19 +865,19 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>980</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X4" t="n">
         <v>6</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>790</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>880</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>2.56</v>
       </c>
       <c r="J5" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.15</v>
+        <v>14.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>55</v>
+        <v>1.22</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>1.23</v>
       </c>
       <c r="J6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>2.86</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.86</v>
       </c>
       <c r="S6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X6" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
         <v>11.5</v>
       </c>
-      <c r="T6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
         <v>1000</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1000</v>
       </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AL6" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.33</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>150</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>50</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.05</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.81</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>220</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>2.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>2.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="R10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.27</v>
       </c>
-      <c r="S10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK11" t="n">
         <v>36</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>32</v>
-      </c>
       <c r="AL11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="Z12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL12" t="n">
         <v>40</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>270</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>190</v>
-      </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AE13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
         <v>27</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.64</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK14" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AL14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN14" t="n">
         <v>20</v>
       </c>
-      <c r="AF14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
         <v>46</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H15" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="X15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
         <v>32</v>
       </c>
-      <c r="Y15" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.68</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
         <v>32</v>
       </c>
-      <c r="AK16" t="n">
-        <v>36</v>
-      </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.76</v>
+        <v>1.13</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>1.14</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>13.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>1.72</v>
       </c>
       <c r="T17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.9</v>
       </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z17" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AD17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>14</v>
       </c>
-      <c r="AE17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>36</v>
       </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>2.34</v>
       </c>
       <c r="AO17" t="n">
-        <v>46</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>9.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>9.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>1.35</v>
       </c>
       <c r="J18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Q18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V18" t="n">
         <v>3.85</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
         <v>24</v>
       </c>
-      <c r="AA18" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.33</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
-        <v>1.34</v>
+        <v>3.8</v>
       </c>
       <c r="H19" t="n">
-        <v>11.5</v>
+        <v>2.06</v>
       </c>
       <c r="I19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="n">
         <v>13</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>44</v>
-      </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>490</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>44</v>
-      </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.6</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>1.15</v>
       </c>
       <c r="G21" t="n">
-        <v>3.65</v>
+        <v>1.16</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>21</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="S21" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>250</v>
       </c>
       <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC21" t="n">
         <v>27</v>
       </c>
-      <c r="AB21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF21" t="n">
         <v>11</v>
       </c>
-      <c r="AE21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>46</v>
-      </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="AJ21" t="n">
-        <v>230</v>
+        <v>9.4</v>
       </c>
       <c r="AK21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL21" t="n">
         <v>36</v>
       </c>
-      <c r="AL21" t="n">
-        <v>40</v>
-      </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>2.46</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.5</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:01</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="H22" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.21</v>
       </c>
-      <c r="P22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>55</v>
-      </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -3493,931 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.13</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H23" t="n">
-        <v>27</v>
-      </c>
-      <c r="I23" t="n">
-        <v>28</v>
-      </c>
-      <c r="J23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>13</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W23" t="n">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Y23" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="n">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE23" t="n">
         <v>85</v>
       </c>
-      <c r="AE23" t="n">
-        <v>430</v>
-      </c>
       <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>14</v>
-      </c>
       <c r="AH23" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Slavia Prague</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X24" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X25" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Athletic Bilbao</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Pafos FC</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>280</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X29" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.34</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>2.62</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>2.66</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="R2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.35</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM2" t="n">
         <v>1000</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>38</v>
-      </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>380</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:31:01</t>
+          <t>14:30:09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.99</v>
+        <v>1.13</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,70 +826,70 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.02</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>19.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -901,19 +901,19 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.84</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.1</v>
-      </c>
       <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>11.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>6.8</v>
       </c>
       <c r="AI4" t="n">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>370</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE5" t="n">
         <v>14</v>
       </c>
-      <c r="Z5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
         <v>12</v>
       </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
         <v>23</v>
       </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:34</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14.5</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>1.22</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>1.23</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.06</v>
+        <v>3.4</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.199999999999999</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.5</v>
+        <v>430</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>270</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>6.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="AN6" t="n">
-        <v>270</v>
+        <v>9.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.45</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.76</v>
+        <v>1.09</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>11</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>1.91</v>
       </c>
       <c r="X7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>34</v>
       </c>
-      <c r="Y7" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>2.46</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.61</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
         <v>26</v>
       </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
         <v>29</v>
       </c>
-      <c r="AM9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.56</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
         <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN10" t="n">
         <v>12</v>
       </c>
-      <c r="AH10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>32</v>
-      </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>1.33</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:45:01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.6</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.48</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
         <v>60</v>
       </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>1.35</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="S13" t="n">
-        <v>2.58</v>
+        <v>1.91</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="n">
         <v>34</v>
       </c>
-      <c r="Z13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>90</v>
       </c>
       <c r="AO13" t="n">
-        <v>210</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="n">
         <v>36</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN14" t="n">
         <v>25</v>
       </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.34</v>
       </c>
-      <c r="H15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="S15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X15" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X15" t="n">
-        <v>30</v>
-      </c>
       <c r="Y15" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="n">
         <v>130</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>170</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:01</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>1.14</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.34</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>12.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.04</v>
       </c>
-      <c r="N16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.43</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="Z16" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
         <v>18</v>
       </c>
-      <c r="AA16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>9.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>2.36</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="n">
-        <v>1.14</v>
+        <v>1.77</v>
       </c>
       <c r="H17" t="n">
-        <v>24</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
         <v>11.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.34</v>
-      </c>
       <c r="AO17" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.4</v>
+        <v>1.13</v>
       </c>
       <c r="G18" t="n">
-        <v>9.6</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>1.34</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
-        <v>1.35</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P18" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="R18" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>1.11</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.5</v>
+        <v>290</v>
       </c>
       <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK18" t="n">
         <v>13</v>
       </c>
-      <c r="AB18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>110</v>
-      </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>2.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.55</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19">
@@ -2953,661 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>1.38</v>
       </c>
       <c r="G19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X19" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN19" t="n">
         <v>3.8</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X19" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>25</v>
-      </c>
       <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Athletic Bilbao</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE20" t="n">
         <v>75</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Pafos FC</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H21" t="n">
-        <v>21</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
